--- a/src/main/resources/ticket/excel/ticket_input.xlsx
+++ b/src/main/resources/ticket/excel/ticket_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\ticket\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5A73C1-2E7E-45C7-BD5E-C83017638D50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE59B6C5-28F6-49E0-AFC4-BADB537C691D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,7 +261,7 @@
     <t>28/07/2017</t>
   </si>
   <si>
-    <t>provider modalitÃ  updater</t>
+    <t>provider modalità updater</t>
   </si>
   <si>
     <t>08/05/2017</t>
@@ -540,7 +540,7 @@
     <t>29/08/2018</t>
   </si>
   <si>
-    <t>possibilitÃ  download log da pagina debug</t>
+    <t>possibilità download log da pagina debug</t>
   </si>
   <si>
     <t>Chiamata REST per GoToWebinar per Lancini Ste</t>
@@ -591,7 +591,7 @@
     <t>15/09/2018</t>
   </si>
   <si>
-    <t>log salvare i messaggi piÃ¹ lunghi di 64kb su file</t>
+    <t>log salvare i messaggi più lunghi di 64kb su file</t>
   </si>
   <si>
     <t>Rilascio Smeup Provider in Linux</t>
@@ -600,7 +600,7 @@
     <t>11/06/2018</t>
   </si>
   <si>
-    <t>funzionalitÃ  e componenti da portare in WebUP</t>
+    <t>funzionalità e componenti da portare in WebUP</t>
   </si>
   <si>
     <t>18/01/2018</t>
@@ -624,7 +624,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="##\%"/>
-    <numFmt numFmtId="166" formatCode="d/m/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1066,6 +1066,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1075,7 +1076,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1660,13 +1660,8 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="5">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1693,75 +1688,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -9207,8 +9133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH661"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9339,94 +9265,94 @@
     </row>
     <row r="6" spans="1:34" s="12" customFormat="1" ht="14.25" customHeight="true">
       <c r="A6" s="0"/>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="0"/>
       <c r="F6" s="18"/>
       <c r="H6" s="0"/>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="30"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="0"/>
       <c r="M6" s="18"/>
       <c r="O6" s="0"/>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="30"/>
+      <c r="R6" s="31"/>
       <c r="S6" s="0"/>
       <c r="T6" s="18"/>
       <c r="V6" s="0"/>
-      <c r="X6" s="30" t="s">
+      <c r="X6" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="Y6" s="30"/>
+      <c r="Y6" s="31"/>
       <c r="Z6" s="0"/>
       <c r="AA6" s="18"/>
       <c r="AC6" s="0"/>
-      <c r="AE6" s="30" t="s">
+      <c r="AE6" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="AF6" s="30"/>
+      <c r="AF6" s="31"/>
       <c r="AG6" s="0"/>
       <c r="AH6" s="18"/>
     </row>
     <row r="7" spans="1:34" s="12" customFormat="1" ht="12.0" customHeight="true">
       <c r="A7" s="0"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="0"/>
       <c r="F7" s="18"/>
       <c r="H7" s="0"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
       <c r="L7" s="0"/>
       <c r="M7" s="18"/>
       <c r="O7" s="0"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
       <c r="S7" s="0"/>
       <c r="T7" s="18"/>
       <c r="V7" s="0"/>
       <c r="W7" s="16"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
       <c r="Z7" s="0"/>
       <c r="AA7" s="18"/>
       <c r="AC7" s="0"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
       <c r="AG7" s="0"/>
       <c r="AH7" s="18"/>
     </row>
     <row r="8" spans="1:34" s="12" customFormat="1" ht="12.0" customHeight="true">
       <c r="A8" s="15"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="0"/>
       <c r="F8" s="18"/>
       <c r="H8" s="15"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
       <c r="L8" s="0"/>
       <c r="M8" s="18"/>
       <c r="O8" s="15"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
       <c r="S8" s="0"/>
       <c r="T8" s="18"/>
       <c r="V8" s="15"/>
       <c r="W8" s="16"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
       <c r="Z8" s="0"/>
       <c r="AA8" s="18"/>
       <c r="AC8" s="15"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
       <c r="AG8" s="0"/>
       <c r="AH8" s="18"/>
     </row>
@@ -9469,38 +9395,38 @@
       <c r="J10" s="20" t="n">
         <v>100.0</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
       <c r="O10" s="15"/>
       <c r="Q10" s="20" t="n">
         <v>0.0</v>
       </c>
-      <c r="R10" s="31" t="s">
+      <c r="R10" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="31"/>
-      <c r="T10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="33"/>
       <c r="V10" s="15"/>
       <c r="X10" s="20" t="n">
         <v>100.0</v>
       </c>
-      <c r="Y10" s="31" t="s">
+      <c r="Y10" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="33"/>
       <c r="AC10" s="15"/>
       <c r="AE10" s="20" t="n">
         <v>100.0</v>
       </c>
-      <c r="AF10" s="31" t="s">
+      <c r="AF10" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="33"/>
     </row>
     <row r="11" spans="1:34" s="12" customFormat="1" ht="12.0" customHeight="true">
       <c r="A11" s="15"/>
@@ -9586,7 +9512,7 @@
       <c r="C13" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="8"/>
@@ -9596,7 +9522,7 @@
       <c r="J13" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="30" t="s">
         <v>33</v>
       </c>
       <c r="L13" s="8"/>
@@ -9606,7 +9532,7 @@
       <c r="Q13" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="33" t="s">
+      <c r="R13" s="30" t="s">
         <v>49</v>
       </c>
       <c r="S13" s="8"/>
@@ -9616,7 +9542,7 @@
       <c r="X13" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="Y13" s="33" t="s">
+      <c r="Y13" s="30" t="s">
         <v>83</v>
       </c>
       <c r="Z13" s="8"/>
@@ -9626,7 +9552,7 @@
       <c r="AE13" s="277" t="s">
         <v>48</v>
       </c>
-      <c r="AF13" s="33" t="s">
+      <c r="AF13" s="30" t="s">
         <v>85</v>
       </c>
       <c r="AG13" s="8"/>
@@ -9697,71 +9623,71 @@
       <c r="AH17" s="14"/>
     </row>
     <row r="18" ht="14.25" customHeight="true">
-      <c r="C18" t="s" s="30">
+      <c r="C18" t="s" s="31">
         <v>17</v>
       </c>
-      <c r="D18" s="30"/>
+      <c r="D18" s="31"/>
       <c r="F18" s="18"/>
-      <c r="J18" t="s" s="30">
+      <c r="J18" t="s" s="31">
         <v>34</v>
       </c>
-      <c r="K18" s="30"/>
+      <c r="K18" s="31"/>
       <c r="M18" s="18"/>
-      <c r="Q18" t="s" s="30">
+      <c r="Q18" t="s" s="31">
         <v>50</v>
       </c>
-      <c r="R18" s="30"/>
+      <c r="R18" s="31"/>
       <c r="T18" s="18"/>
-      <c r="X18" t="s" s="30">
+      <c r="X18" t="s" s="31">
         <v>84</v>
       </c>
-      <c r="Y18" s="30"/>
+      <c r="Y18" s="31"/>
       <c r="AA18" s="18"/>
-      <c r="AE18" t="s" s="30">
+      <c r="AE18" t="s" s="31">
         <v>96</v>
       </c>
-      <c r="AF18" s="30"/>
+      <c r="AF18" s="31"/>
       <c r="AH18" s="18"/>
     </row>
     <row r="19" ht="12.0" customHeight="true">
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="F19" s="18"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
       <c r="M19" s="18"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
       <c r="T19" s="18"/>
       <c r="W19" s="16"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
       <c r="AA19" s="18"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
       <c r="AH19" s="18"/>
     </row>
     <row r="20" ht="12.0" customHeight="true">
       <c r="A20" s="15"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="F20" s="18"/>
       <c r="H20" s="15"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
       <c r="M20" s="18"/>
       <c r="O20" s="15"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
       <c r="T20" s="18"/>
       <c r="V20" s="15"/>
       <c r="W20" s="16"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
       <c r="AA20" s="18"/>
       <c r="AC20" s="15"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
       <c r="AH20" s="18"/>
     </row>
     <row r="21" spans="24:24" ht="12.0" customHeight="true">
@@ -9804,38 +9730,38 @@
       <c r="J22" t="n" s="20">
         <v>0.0</v>
       </c>
-      <c r="K22" t="s" s="31">
+      <c r="K22" t="s" s="32">
         <v>35</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="33"/>
       <c r="O22" s="15"/>
       <c r="Q22" t="n" s="20">
         <v>0.0</v>
       </c>
-      <c r="R22" t="s" s="31">
+      <c r="R22" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="S22" s="31"/>
-      <c r="T22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="33"/>
       <c r="V22" s="15"/>
       <c r="X22" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="Y22" t="s" s="31">
+      <c r="Y22" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="33"/>
       <c r="AC22" s="15"/>
       <c r="AE22" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF22" t="s" s="31">
+      <c r="AF22" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="33"/>
     </row>
     <row r="23" ht="12.0" customHeight="true">
       <c r="A23" s="15"/>
@@ -9921,7 +9847,7 @@
       <c r="C25" t="s" s="47">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="33">
+      <c r="D25" t="s" s="30">
         <v>19</v>
       </c>
       <c r="E25" s="8"/>
@@ -9931,7 +9857,7 @@
       <c r="J25" t="s" s="96">
         <v>15</v>
       </c>
-      <c r="K25" t="s" s="33">
+      <c r="K25" t="s" s="30">
         <v>36</v>
       </c>
       <c r="L25" s="8"/>
@@ -9941,7 +9867,7 @@
       <c r="Q25" t="s" s="139">
         <v>31</v>
       </c>
-      <c r="R25" t="s" s="33">
+      <c r="R25" t="s" s="30">
         <v>51</v>
       </c>
       <c r="S25" s="8"/>
@@ -9951,7 +9877,7 @@
       <c r="X25" t="s" s="241">
         <v>48</v>
       </c>
-      <c r="Y25" t="s" s="33">
+      <c r="Y25" t="s" s="30">
         <v>85</v>
       </c>
       <c r="Z25" s="8"/>
@@ -9961,7 +9887,7 @@
       <c r="AE25" t="s" s="283">
         <v>48</v>
       </c>
-      <c r="AF25" t="s" s="33">
+      <c r="AF25" t="s" s="30">
         <v>97</v>
       </c>
       <c r="AG25" s="8"/>
@@ -10032,71 +9958,71 @@
       <c r="AH29" s="14"/>
     </row>
     <row r="30" ht="14.25" customHeight="true">
-      <c r="C30" t="s" s="30">
+      <c r="C30" t="s" s="31">
         <v>20</v>
       </c>
-      <c r="D30" s="30"/>
+      <c r="D30" s="31"/>
       <c r="F30" s="18"/>
-      <c r="J30" t="s" s="30">
+      <c r="J30" t="s" s="31">
         <v>37</v>
       </c>
-      <c r="K30" s="30"/>
+      <c r="K30" s="31"/>
       <c r="M30" s="18"/>
-      <c r="Q30" t="s" s="30">
+      <c r="Q30" t="s" s="31">
         <v>52</v>
       </c>
-      <c r="R30" s="30"/>
+      <c r="R30" s="31"/>
       <c r="T30" s="18"/>
-      <c r="X30" t="s" s="30">
+      <c r="X30" t="s" s="31">
         <v>86</v>
       </c>
-      <c r="Y30" s="30"/>
+      <c r="Y30" s="31"/>
       <c r="AA30" s="18"/>
-      <c r="AE30" t="s" s="30">
+      <c r="AE30" t="s" s="31">
         <v>98</v>
       </c>
-      <c r="AF30" s="30"/>
+      <c r="AF30" s="31"/>
       <c r="AH30" s="18"/>
     </row>
     <row r="31" ht="12.0" customHeight="true">
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
       <c r="F31" s="18"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
       <c r="M31" s="18"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
       <c r="T31" s="18"/>
       <c r="W31" s="16"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
       <c r="AA31" s="18"/>
-      <c r="AE31" s="30"/>
-      <c r="AF31" s="30"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
       <c r="AH31" s="18"/>
     </row>
     <row r="32" ht="12.0" customHeight="true">
       <c r="A32" s="15"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
       <c r="F32" s="18"/>
       <c r="H32" s="15"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
       <c r="M32" s="18"/>
       <c r="O32" s="15"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
       <c r="T32" s="18"/>
       <c r="V32" s="15"/>
       <c r="W32" s="16"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
       <c r="AA32" s="18"/>
       <c r="AC32" s="15"/>
-      <c r="AE32" s="30"/>
-      <c r="AF32" s="30"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="31"/>
       <c r="AH32" s="18"/>
     </row>
     <row r="33" ht="12.0" customHeight="true">
@@ -10138,38 +10064,38 @@
       <c r="J34" t="n" s="20">
         <v>0.0</v>
       </c>
-      <c r="K34" t="s" s="31">
+      <c r="K34" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="33"/>
       <c r="O34" s="15"/>
       <c r="Q34" t="n" s="20">
         <v>41.0</v>
       </c>
-      <c r="R34" t="s" s="31">
+      <c r="R34" t="s" s="32">
         <v>35</v>
       </c>
-      <c r="S34" s="31"/>
-      <c r="T34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="33"/>
       <c r="V34" s="15"/>
       <c r="X34" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="Y34" t="s" s="31">
+      <c r="Y34" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="33"/>
       <c r="AC34" s="15"/>
       <c r="AE34" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF34" t="s" s="31">
+      <c r="AF34" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG34" s="31"/>
-      <c r="AH34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="33"/>
     </row>
     <row r="35" ht="12.0" customHeight="true">
       <c r="A35" s="15"/>
@@ -10255,7 +10181,7 @@
       <c r="C37" t="s" s="53">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="33">
+      <c r="D37" t="s" s="30">
         <v>21</v>
       </c>
       <c r="E37" s="8"/>
@@ -10265,7 +10191,7 @@
       <c r="J37" t="s" s="102">
         <v>15</v>
       </c>
-      <c r="K37" t="s" s="33">
+      <c r="K37" t="s" s="30">
         <v>38</v>
       </c>
       <c r="L37" s="8"/>
@@ -10275,7 +10201,7 @@
       <c r="Q37" t="s" s="145">
         <v>31</v>
       </c>
-      <c r="R37" t="s" s="33">
+      <c r="R37" t="s" s="30">
         <v>53</v>
       </c>
       <c r="S37" s="8"/>
@@ -10285,7 +10211,7 @@
       <c r="X37" t="s" s="247">
         <v>31</v>
       </c>
-      <c r="Y37" t="s" s="33">
+      <c r="Y37" t="s" s="30">
         <v>87</v>
       </c>
       <c r="Z37" s="8"/>
@@ -10295,7 +10221,7 @@
       <c r="AE37" t="s" s="289">
         <v>48</v>
       </c>
-      <c r="AF37" t="s" s="33">
+      <c r="AF37" t="s" s="30">
         <v>99</v>
       </c>
       <c r="AG37" s="8"/>
@@ -10366,71 +10292,71 @@
       <c r="AH41" s="14"/>
     </row>
     <row r="42" ht="14.25" customHeight="true">
-      <c r="C42" t="s" s="30">
+      <c r="C42" t="s" s="31">
         <v>22</v>
       </c>
-      <c r="D42" s="30"/>
+      <c r="D42" s="31"/>
       <c r="F42" s="18"/>
-      <c r="J42" t="s" s="30">
+      <c r="J42" t="s" s="31">
         <v>39</v>
       </c>
-      <c r="K42" s="30"/>
+      <c r="K42" s="31"/>
       <c r="M42" s="18"/>
-      <c r="Q42" t="s" s="30">
+      <c r="Q42" t="s" s="31">
         <v>54</v>
       </c>
-      <c r="R42" s="30"/>
+      <c r="R42" s="31"/>
       <c r="T42" s="18"/>
-      <c r="X42" t="s" s="30">
+      <c r="X42" t="s" s="31">
         <v>88</v>
       </c>
-      <c r="Y42" s="30"/>
+      <c r="Y42" s="31"/>
       <c r="AA42" s="18"/>
-      <c r="AE42" t="s" s="30">
+      <c r="AE42" t="s" s="31">
         <v>100</v>
       </c>
-      <c r="AF42" s="30"/>
+      <c r="AF42" s="31"/>
       <c r="AH42" s="18"/>
     </row>
     <row r="43" ht="12.0" customHeight="true">
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
       <c r="F43" s="18"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
       <c r="M43" s="18"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
       <c r="T43" s="18"/>
       <c r="W43" s="16"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="31"/>
       <c r="AA43" s="18"/>
-      <c r="AE43" s="30"/>
-      <c r="AF43" s="30"/>
+      <c r="AE43" s="31"/>
+      <c r="AF43" s="31"/>
       <c r="AH43" s="18"/>
     </row>
     <row r="44" ht="12.0" customHeight="true">
       <c r="A44" s="15"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
       <c r="F44" s="18"/>
       <c r="H44" s="15"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
       <c r="M44" s="18"/>
       <c r="O44" s="15"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
       <c r="T44" s="18"/>
       <c r="V44" s="15"/>
       <c r="W44" s="16"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="31"/>
       <c r="AA44" s="18"/>
       <c r="AC44" s="15"/>
-      <c r="AE44" s="30"/>
-      <c r="AF44" s="30"/>
+      <c r="AE44" s="31"/>
+      <c r="AF44" s="31"/>
       <c r="AH44" s="18"/>
     </row>
     <row r="45" ht="12.0" customHeight="true">
@@ -10472,38 +10398,38 @@
       <c r="J46" t="n" s="20">
         <v>0.0</v>
       </c>
-      <c r="K46" t="s" s="31">
+      <c r="K46" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="L46" s="31"/>
-      <c r="M46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="33"/>
       <c r="O46" s="15"/>
       <c r="Q46" t="n" s="20">
         <v>66.0</v>
       </c>
-      <c r="R46" t="s" s="31">
+      <c r="R46" t="s" s="32">
         <v>35</v>
       </c>
-      <c r="S46" s="31"/>
-      <c r="T46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="33"/>
       <c r="V46" s="15"/>
       <c r="X46" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="Y46" t="s" s="31">
+      <c r="Y46" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="32"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="33"/>
       <c r="AC46" s="15"/>
       <c r="AE46" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF46" t="s" s="31">
+      <c r="AF46" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG46" s="31"/>
-      <c r="AH46" s="32"/>
+      <c r="AG46" s="32"/>
+      <c r="AH46" s="33"/>
     </row>
     <row r="47" ht="12.0" customHeight="true">
       <c r="A47" s="15"/>
@@ -10589,7 +10515,7 @@
       <c r="C49" t="s" s="59">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="33">
+      <c r="D49" t="s" s="30">
         <v>21</v>
       </c>
       <c r="E49" s="8"/>
@@ -10599,7 +10525,7 @@
       <c r="J49" t="s" s="108">
         <v>15</v>
       </c>
-      <c r="K49" t="s" s="33">
+      <c r="K49" t="s" s="30">
         <v>40</v>
       </c>
       <c r="L49" s="8"/>
@@ -10609,7 +10535,7 @@
       <c r="Q49" t="s" s="151">
         <v>31</v>
       </c>
-      <c r="R49" t="s" s="33">
+      <c r="R49" t="s" s="30">
         <v>55</v>
       </c>
       <c r="S49" s="8"/>
@@ -10619,7 +10545,7 @@
       <c r="X49" t="s" s="253">
         <v>31</v>
       </c>
-      <c r="Y49" t="s" s="33">
+      <c r="Y49" t="s" s="30">
         <v>83</v>
       </c>
       <c r="Z49" s="8"/>
@@ -10629,7 +10555,7 @@
       <c r="AE49" t="s" s="295">
         <v>48</v>
       </c>
-      <c r="AF49" t="s" s="33">
+      <c r="AF49" t="s" s="30">
         <v>101</v>
       </c>
       <c r="AG49" s="8"/>
@@ -10700,71 +10626,71 @@
       <c r="AH53" s="14"/>
     </row>
     <row r="54" ht="14.25" customHeight="true">
-      <c r="C54" t="s" s="30">
+      <c r="C54" t="s" s="31">
         <v>23</v>
       </c>
-      <c r="D54" s="30"/>
+      <c r="D54" s="31"/>
       <c r="F54" s="18"/>
-      <c r="J54" t="s" s="30">
+      <c r="J54" t="s" s="31">
         <v>41</v>
       </c>
-      <c r="K54" s="30"/>
+      <c r="K54" s="31"/>
       <c r="M54" s="18"/>
-      <c r="Q54" t="s" s="30">
+      <c r="Q54" t="s" s="31">
         <v>56</v>
       </c>
-      <c r="R54" s="30"/>
+      <c r="R54" s="31"/>
       <c r="T54" s="18"/>
-      <c r="X54" t="s" s="30">
+      <c r="X54" t="s" s="31">
         <v>89</v>
       </c>
-      <c r="Y54" s="30"/>
+      <c r="Y54" s="31"/>
       <c r="AA54" s="18"/>
-      <c r="AE54" t="s" s="30">
+      <c r="AE54" t="s" s="31">
         <v>102</v>
       </c>
-      <c r="AF54" s="30"/>
+      <c r="AF54" s="31"/>
       <c r="AH54" s="18"/>
     </row>
     <row r="55" ht="12.0" customHeight="true">
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
       <c r="F55" s="18"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
       <c r="M55" s="18"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
       <c r="T55" s="18"/>
       <c r="W55" s="16"/>
-      <c r="X55" s="30"/>
-      <c r="Y55" s="30"/>
+      <c r="X55" s="31"/>
+      <c r="Y55" s="31"/>
       <c r="AA55" s="18"/>
-      <c r="AE55" s="30"/>
-      <c r="AF55" s="30"/>
+      <c r="AE55" s="31"/>
+      <c r="AF55" s="31"/>
       <c r="AH55" s="18"/>
     </row>
     <row r="56" ht="12.0" customHeight="true">
       <c r="A56" s="15"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
       <c r="F56" s="18"/>
       <c r="H56" s="15"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
       <c r="M56" s="18"/>
       <c r="O56" s="15"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
       <c r="T56" s="18"/>
       <c r="V56" s="15"/>
       <c r="W56" s="16"/>
-      <c r="X56" s="30"/>
-      <c r="Y56" s="30"/>
+      <c r="X56" s="31"/>
+      <c r="Y56" s="31"/>
       <c r="AA56" s="18"/>
       <c r="AC56" s="15"/>
-      <c r="AE56" s="30"/>
-      <c r="AF56" s="30"/>
+      <c r="AE56" s="31"/>
+      <c r="AF56" s="31"/>
       <c r="AH56" s="18"/>
     </row>
     <row r="57" ht="12.0" customHeight="true">
@@ -10806,38 +10732,38 @@
       <c r="J58" t="n" s="20">
         <v>0.0</v>
       </c>
-      <c r="K58" t="s" s="31">
+      <c r="K58" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="L58" s="31"/>
-      <c r="M58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="33"/>
       <c r="O58" s="15"/>
       <c r="Q58" t="n" s="20">
         <v>40.0</v>
       </c>
-      <c r="R58" t="s" s="31">
+      <c r="R58" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="S58" s="31"/>
-      <c r="T58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="33"/>
       <c r="V58" s="15"/>
       <c r="X58" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="Y58" t="s" s="31">
+      <c r="Y58" t="s" s="32">
         <v>35</v>
       </c>
-      <c r="Z58" s="31"/>
-      <c r="AA58" s="32"/>
+      <c r="Z58" s="32"/>
+      <c r="AA58" s="33"/>
       <c r="AC58" s="15"/>
       <c r="AE58" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF58" t="s" s="31">
+      <c r="AF58" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG58" s="31"/>
-      <c r="AH58" s="32"/>
+      <c r="AG58" s="32"/>
+      <c r="AH58" s="33"/>
     </row>
     <row r="59" ht="12.0" customHeight="true">
       <c r="A59" s="15"/>
@@ -10923,7 +10849,7 @@
       <c r="C61" t="s" s="65">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="33">
+      <c r="D61" t="s" s="30">
         <v>24</v>
       </c>
       <c r="E61" s="8"/>
@@ -10933,7 +10859,7 @@
       <c r="J61" t="s" s="114">
         <v>15</v>
       </c>
-      <c r="K61" t="s" s="33">
+      <c r="K61" t="s" s="30">
         <v>42</v>
       </c>
       <c r="L61" s="8"/>
@@ -10943,7 +10869,7 @@
       <c r="Q61" t="s" s="157">
         <v>31</v>
       </c>
-      <c r="R61" t="s" s="33">
+      <c r="R61" t="s" s="30">
         <v>57</v>
       </c>
       <c r="S61" s="8"/>
@@ -10953,7 +10879,7 @@
       <c r="X61" t="s" s="259">
         <v>31</v>
       </c>
-      <c r="Y61" t="s" s="33">
+      <c r="Y61" t="s" s="30">
         <v>59</v>
       </c>
       <c r="Z61" s="8"/>
@@ -10963,7 +10889,7 @@
       <c r="AE61" t="s" s="301">
         <v>48</v>
       </c>
-      <c r="AF61" t="s" s="33">
+      <c r="AF61" t="s" s="30">
         <v>103</v>
       </c>
       <c r="AG61" s="8"/>
@@ -11034,71 +10960,71 @@
       <c r="AH65" s="14"/>
     </row>
     <row r="66" ht="14.25" customHeight="true">
-      <c r="C66" t="s" s="30">
+      <c r="C66" t="s" s="31">
         <v>25</v>
       </c>
-      <c r="D66" s="30"/>
+      <c r="D66" s="31"/>
       <c r="F66" s="18"/>
-      <c r="J66" t="s" s="30">
+      <c r="J66" t="s" s="31">
         <v>43</v>
       </c>
-      <c r="K66" s="30"/>
+      <c r="K66" s="31"/>
       <c r="M66" s="18"/>
-      <c r="Q66" t="s" s="30">
+      <c r="Q66" t="s" s="31">
         <v>58</v>
       </c>
-      <c r="R66" s="30"/>
+      <c r="R66" s="31"/>
       <c r="T66" s="18"/>
-      <c r="X66" t="s" s="30">
+      <c r="X66" t="s" s="31">
         <v>90</v>
       </c>
-      <c r="Y66" s="30"/>
+      <c r="Y66" s="31"/>
       <c r="AA66" s="18"/>
-      <c r="AE66" t="s" s="30">
+      <c r="AE66" t="s" s="31">
         <v>104</v>
       </c>
-      <c r="AF66" s="30"/>
+      <c r="AF66" s="31"/>
       <c r="AH66" s="18"/>
     </row>
     <row r="67" ht="12.0" customHeight="true">
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
       <c r="F67" s="18"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
       <c r="M67" s="18"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31"/>
       <c r="T67" s="18"/>
       <c r="W67" s="16"/>
-      <c r="X67" s="30"/>
-      <c r="Y67" s="30"/>
+      <c r="X67" s="31"/>
+      <c r="Y67" s="31"/>
       <c r="AA67" s="18"/>
-      <c r="AE67" s="30"/>
-      <c r="AF67" s="30"/>
+      <c r="AE67" s="31"/>
+      <c r="AF67" s="31"/>
       <c r="AH67" s="18"/>
     </row>
     <row r="68" ht="12.0" customHeight="true">
       <c r="A68" s="15"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
       <c r="F68" s="18"/>
       <c r="H68" s="15"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
       <c r="M68" s="18"/>
       <c r="O68" s="15"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="31"/>
       <c r="T68" s="18"/>
       <c r="V68" s="15"/>
       <c r="W68" s="16"/>
-      <c r="X68" s="30"/>
-      <c r="Y68" s="30"/>
+      <c r="X68" s="31"/>
+      <c r="Y68" s="31"/>
       <c r="AA68" s="18"/>
       <c r="AC68" s="15"/>
-      <c r="AE68" s="30"/>
-      <c r="AF68" s="30"/>
+      <c r="AE68" s="31"/>
+      <c r="AF68" s="31"/>
       <c r="AH68" s="18"/>
     </row>
     <row r="69" ht="12.0" customHeight="true">
@@ -11140,38 +11066,38 @@
       <c r="J70" t="n" s="20">
         <v>0.0</v>
       </c>
-      <c r="K70" t="s" s="31">
+      <c r="K70" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="L70" s="31"/>
-      <c r="M70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="33"/>
       <c r="O70" s="15"/>
       <c r="Q70" t="n" s="20">
         <v>90.0</v>
       </c>
-      <c r="R70" t="s" s="31">
+      <c r="R70" t="s" s="32">
         <v>35</v>
       </c>
-      <c r="S70" s="31"/>
-      <c r="T70" s="32"/>
+      <c r="S70" s="32"/>
+      <c r="T70" s="33"/>
       <c r="V70" s="15"/>
       <c r="X70" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="Y70" t="s" s="31">
+      <c r="Y70" t="s" s="32">
         <v>91</v>
       </c>
-      <c r="Z70" s="31"/>
-      <c r="AA70" s="32"/>
+      <c r="Z70" s="32"/>
+      <c r="AA70" s="33"/>
       <c r="AC70" s="15"/>
       <c r="AE70" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF70" t="s" s="31">
+      <c r="AF70" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG70" s="31"/>
-      <c r="AH70" s="32"/>
+      <c r="AG70" s="32"/>
+      <c r="AH70" s="33"/>
     </row>
     <row r="71" ht="12.0" customHeight="true">
       <c r="A71" s="15"/>
@@ -11257,7 +11183,7 @@
       <c r="C73" t="s" s="71">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="33">
+      <c r="D73" t="s" s="30">
         <v>26</v>
       </c>
       <c r="E73" s="8"/>
@@ -11267,7 +11193,7 @@
       <c r="J73" t="s" s="120">
         <v>18</v>
       </c>
-      <c r="K73" t="s" s="33">
+      <c r="K73" t="s" s="30">
         <v>44</v>
       </c>
       <c r="L73" s="8"/>
@@ -11277,7 +11203,7 @@
       <c r="Q73" t="s" s="163">
         <v>31</v>
       </c>
-      <c r="R73" t="s" s="33">
+      <c r="R73" t="s" s="30">
         <v>59</v>
       </c>
       <c r="S73" s="8"/>
@@ -11287,7 +11213,7 @@
       <c r="X73" t="s" s="265">
         <v>15</v>
       </c>
-      <c r="Y73" t="s" s="33">
+      <c r="Y73" t="s" s="30">
         <v>92</v>
       </c>
       <c r="Z73" s="8"/>
@@ -11297,7 +11223,7 @@
       <c r="AE73" t="s" s="307">
         <v>48</v>
       </c>
-      <c r="AF73" t="s" s="33">
+      <c r="AF73" t="s" s="30">
         <v>105</v>
       </c>
       <c r="AG73" s="8"/>
@@ -11368,71 +11294,71 @@
       <c r="AH77" s="14"/>
     </row>
     <row r="78" ht="14.25" customHeight="true">
-      <c r="C78" t="s" s="30">
+      <c r="C78" t="s" s="31">
         <v>27</v>
       </c>
-      <c r="D78" s="30"/>
+      <c r="D78" s="31"/>
       <c r="F78" s="18"/>
-      <c r="J78" t="s" s="30">
+      <c r="J78" t="s" s="31">
         <v>45</v>
       </c>
-      <c r="K78" s="30"/>
+      <c r="K78" s="31"/>
       <c r="M78" s="18"/>
-      <c r="Q78" t="s" s="30">
+      <c r="Q78" t="s" s="31">
         <v>60</v>
       </c>
-      <c r="R78" s="30"/>
+      <c r="R78" s="31"/>
       <c r="T78" s="18"/>
-      <c r="X78" t="s" s="30">
+      <c r="X78" t="s" s="31">
         <v>93</v>
       </c>
-      <c r="Y78" s="30"/>
+      <c r="Y78" s="31"/>
       <c r="AA78" s="18"/>
-      <c r="AE78" t="s" s="30">
+      <c r="AE78" t="s" s="31">
         <v>106</v>
       </c>
-      <c r="AF78" s="30"/>
+      <c r="AF78" s="31"/>
       <c r="AH78" s="18"/>
     </row>
     <row r="79" ht="12.0" customHeight="true">
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
       <c r="F79" s="18"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
       <c r="M79" s="18"/>
-      <c r="Q79" s="30"/>
-      <c r="R79" s="30"/>
+      <c r="Q79" s="31"/>
+      <c r="R79" s="31"/>
       <c r="T79" s="18"/>
       <c r="W79" s="16"/>
-      <c r="X79" s="30"/>
-      <c r="Y79" s="30"/>
+      <c r="X79" s="31"/>
+      <c r="Y79" s="31"/>
       <c r="AA79" s="18"/>
-      <c r="AE79" s="30"/>
-      <c r="AF79" s="30"/>
+      <c r="AE79" s="31"/>
+      <c r="AF79" s="31"/>
       <c r="AH79" s="18"/>
     </row>
     <row r="80" ht="12.0" customHeight="true">
       <c r="A80" s="15"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
       <c r="F80" s="18"/>
       <c r="H80" s="15"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
       <c r="M80" s="18"/>
       <c r="O80" s="15"/>
-      <c r="Q80" s="30"/>
-      <c r="R80" s="30"/>
+      <c r="Q80" s="31"/>
+      <c r="R80" s="31"/>
       <c r="T80" s="18"/>
       <c r="V80" s="15"/>
       <c r="W80" s="16"/>
-      <c r="X80" s="30"/>
-      <c r="Y80" s="30"/>
+      <c r="X80" s="31"/>
+      <c r="Y80" s="31"/>
       <c r="AA80" s="18"/>
       <c r="AC80" s="15"/>
-      <c r="AE80" s="30"/>
-      <c r="AF80" s="30"/>
+      <c r="AE80" s="31"/>
+      <c r="AF80" s="31"/>
       <c r="AH80" s="18"/>
     </row>
     <row r="81" ht="12.0" customHeight="true">
@@ -11474,38 +11400,38 @@
       <c r="J82" t="n" s="20">
         <v>0.0</v>
       </c>
-      <c r="K82" t="s" s="31">
+      <c r="K82" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="L82" s="31"/>
-      <c r="M82" s="32"/>
+      <c r="L82" s="32"/>
+      <c r="M82" s="33"/>
       <c r="O82" s="15"/>
       <c r="Q82" t="n" s="20">
         <v>31.0</v>
       </c>
-      <c r="R82" t="s" s="31">
+      <c r="R82" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="S82" s="31"/>
-      <c r="T82" s="32"/>
+      <c r="S82" s="32"/>
+      <c r="T82" s="33"/>
       <c r="V82" s="15"/>
       <c r="X82" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="Y82" t="s" s="31">
+      <c r="Y82" t="s" s="32">
         <v>35</v>
       </c>
-      <c r="Z82" s="31"/>
-      <c r="AA82" s="32"/>
+      <c r="Z82" s="32"/>
+      <c r="AA82" s="33"/>
       <c r="AC82" s="15"/>
       <c r="AE82" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF82" t="s" s="31">
+      <c r="AF82" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG82" s="31"/>
-      <c r="AH82" s="32"/>
+      <c r="AG82" s="32"/>
+      <c r="AH82" s="33"/>
     </row>
     <row r="83" ht="12.0" customHeight="true">
       <c r="A83" s="15"/>
@@ -11591,7 +11517,7 @@
       <c r="C85" t="s" s="77">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="33">
+      <c r="D85" t="s" s="30">
         <v>26</v>
       </c>
       <c r="E85" s="8"/>
@@ -11601,7 +11527,7 @@
       <c r="J85" t="s" s="126">
         <v>18</v>
       </c>
-      <c r="K85" t="s" s="33">
+      <c r="K85" t="s" s="30">
         <v>46</v>
       </c>
       <c r="L85" s="8"/>
@@ -11611,7 +11537,7 @@
       <c r="Q85" t="s" s="169">
         <v>31</v>
       </c>
-      <c r="R85" t="s" s="33">
+      <c r="R85" t="s" s="30">
         <v>61</v>
       </c>
       <c r="S85" s="8"/>
@@ -11621,7 +11547,7 @@
       <c r="X85" t="s" s="271">
         <v>18</v>
       </c>
-      <c r="Y85" t="s" s="33">
+      <c r="Y85" t="s" s="30">
         <v>94</v>
       </c>
       <c r="Z85" s="8"/>
@@ -11631,7 +11557,7 @@
       <c r="AE85" t="s" s="313">
         <v>48</v>
       </c>
-      <c r="AF85" t="s" s="33">
+      <c r="AF85" t="s" s="30">
         <v>107</v>
       </c>
       <c r="AG85" s="8"/>
@@ -11678,45 +11604,45 @@
       <c r="AH89" s="14"/>
     </row>
     <row r="90" ht="14.25" customHeight="true">
-      <c r="C90" t="s" s="30">
+      <c r="C90" t="s" s="31">
         <v>28</v>
       </c>
-      <c r="D90" s="30"/>
+      <c r="D90" s="31"/>
       <c r="F90" s="18"/>
-      <c r="Q90" t="s" s="30">
+      <c r="Q90" t="s" s="31">
         <v>62</v>
       </c>
-      <c r="R90" s="30"/>
+      <c r="R90" s="31"/>
       <c r="T90" s="18"/>
-      <c r="AE90" t="s" s="30">
+      <c r="AE90" t="s" s="31">
         <v>108</v>
       </c>
-      <c r="AF90" s="30"/>
+      <c r="AF90" s="31"/>
       <c r="AH90" s="18"/>
     </row>
     <row r="91" ht="12.0" customHeight="true">
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
       <c r="F91" s="18"/>
-      <c r="Q91" s="30"/>
-      <c r="R91" s="30"/>
+      <c r="Q91" s="31"/>
+      <c r="R91" s="31"/>
       <c r="T91" s="18"/>
-      <c r="AE91" s="30"/>
-      <c r="AF91" s="30"/>
+      <c r="AE91" s="31"/>
+      <c r="AF91" s="31"/>
       <c r="AH91" s="18"/>
     </row>
     <row r="92" ht="12.0" customHeight="true">
       <c r="A92" s="15"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
       <c r="F92" s="18"/>
       <c r="O92" s="15"/>
-      <c r="Q92" s="30"/>
-      <c r="R92" s="30"/>
+      <c r="Q92" s="31"/>
+      <c r="R92" s="31"/>
       <c r="T92" s="18"/>
       <c r="AC92" s="15"/>
-      <c r="AE92" s="30"/>
-      <c r="AF92" s="30"/>
+      <c r="AE92" s="31"/>
+      <c r="AF92" s="31"/>
       <c r="AH92" s="18"/>
     </row>
     <row r="93" ht="12.0" customHeight="true">
@@ -11748,20 +11674,20 @@
       <c r="Q94" t="n" s="20">
         <v>80.0</v>
       </c>
-      <c r="R94" t="s" s="31">
+      <c r="R94" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="S94" s="31"/>
-      <c r="T94" s="32"/>
+      <c r="S94" s="32"/>
+      <c r="T94" s="33"/>
       <c r="AC94" s="15"/>
       <c r="AE94" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF94" t="s" s="31">
+      <c r="AF94" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG94" s="31"/>
-      <c r="AH94" s="32"/>
+      <c r="AG94" s="32"/>
+      <c r="AH94" s="33"/>
     </row>
     <row r="95" ht="12.0" customHeight="true">
       <c r="A95" s="15"/>
@@ -11818,7 +11744,7 @@
       <c r="C97" t="s" s="83">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="33">
+      <c r="D97" t="s" s="30">
         <v>29</v>
       </c>
       <c r="E97" s="8"/>
@@ -11828,7 +11754,7 @@
       <c r="Q97" t="s" s="175">
         <v>31</v>
       </c>
-      <c r="R97" t="s" s="33">
+      <c r="R97" t="s" s="30">
         <v>63</v>
       </c>
       <c r="S97" s="8"/>
@@ -11838,7 +11764,7 @@
       <c r="AE97" t="s" s="319">
         <v>48</v>
       </c>
-      <c r="AF97" t="s" s="33">
+      <c r="AF97" t="s" s="30">
         <v>109</v>
       </c>
       <c r="AG97" s="8"/>
@@ -11873,33 +11799,33 @@
       <c r="AH101" s="14"/>
     </row>
     <row r="102" ht="14.25" customHeight="true">
-      <c r="Q102" t="s" s="30">
+      <c r="Q102" t="s" s="31">
         <v>64</v>
       </c>
-      <c r="R102" s="30"/>
+      <c r="R102" s="31"/>
       <c r="T102" s="18"/>
-      <c r="AE102" t="s" s="30">
+      <c r="AE102" t="s" s="31">
         <v>110</v>
       </c>
-      <c r="AF102" s="30"/>
+      <c r="AF102" s="31"/>
       <c r="AH102" s="18"/>
     </row>
     <row r="103" ht="12.0" customHeight="true">
-      <c r="Q103" s="30"/>
-      <c r="R103" s="30"/>
+      <c r="Q103" s="31"/>
+      <c r="R103" s="31"/>
       <c r="T103" s="18"/>
-      <c r="AE103" s="30"/>
-      <c r="AF103" s="30"/>
+      <c r="AE103" s="31"/>
+      <c r="AF103" s="31"/>
       <c r="AH103" s="18"/>
     </row>
     <row r="104" ht="12.0" customHeight="true">
       <c r="O104" s="15"/>
-      <c r="Q104" s="30"/>
-      <c r="R104" s="30"/>
+      <c r="Q104" s="31"/>
+      <c r="R104" s="31"/>
       <c r="T104" s="18"/>
       <c r="AC104" s="15"/>
-      <c r="AE104" s="30"/>
-      <c r="AF104" s="30"/>
+      <c r="AE104" s="31"/>
+      <c r="AF104" s="31"/>
       <c r="AH104" s="18"/>
     </row>
     <row r="105" ht="12.0" customHeight="true">
@@ -11919,20 +11845,20 @@
       <c r="Q106" t="n" s="20">
         <v>90.0</v>
       </c>
-      <c r="R106" t="s" s="31">
+      <c r="R106" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="S106" s="31"/>
-      <c r="T106" s="32"/>
+      <c r="S106" s="32"/>
+      <c r="T106" s="33"/>
       <c r="AC106" s="15"/>
       <c r="AE106" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF106" t="s" s="31">
+      <c r="AF106" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG106" s="31"/>
-      <c r="AH106" s="32"/>
+      <c r="AG106" s="32"/>
+      <c r="AH106" s="33"/>
     </row>
     <row r="107" ht="12.0" customHeight="true">
       <c r="O107" s="15"/>
@@ -11974,7 +11900,7 @@
       <c r="Q109" t="s" s="181">
         <v>15</v>
       </c>
-      <c r="R109" t="s" s="33">
+      <c r="R109" t="s" s="30">
         <v>51</v>
       </c>
       <c r="S109" s="8"/>
@@ -11984,7 +11910,7 @@
       <c r="AE109" t="s" s="325">
         <v>48</v>
       </c>
-      <c r="AF109" t="s" s="33">
+      <c r="AF109" t="s" s="30">
         <v>111</v>
       </c>
       <c r="AG109" s="8"/>
@@ -12019,33 +11945,33 @@
       <c r="AH113" s="14"/>
     </row>
     <row r="114" ht="14.25" customHeight="true">
-      <c r="Q114" t="s" s="30">
+      <c r="Q114" t="s" s="31">
         <v>65</v>
       </c>
-      <c r="R114" s="30"/>
+      <c r="R114" s="31"/>
       <c r="T114" s="18"/>
-      <c r="AE114" t="s" s="30">
+      <c r="AE114" t="s" s="31">
         <v>112</v>
       </c>
-      <c r="AF114" s="30"/>
+      <c r="AF114" s="31"/>
       <c r="AH114" s="18"/>
     </row>
     <row r="115" ht="12.0" customHeight="true">
-      <c r="Q115" s="30"/>
-      <c r="R115" s="30"/>
+      <c r="Q115" s="31"/>
+      <c r="R115" s="31"/>
       <c r="T115" s="18"/>
-      <c r="AE115" s="30"/>
-      <c r="AF115" s="30"/>
+      <c r="AE115" s="31"/>
+      <c r="AF115" s="31"/>
       <c r="AH115" s="18"/>
     </row>
     <row r="116" ht="12.0" customHeight="true">
       <c r="O116" s="15"/>
-      <c r="Q116" s="30"/>
-      <c r="R116" s="30"/>
+      <c r="Q116" s="31"/>
+      <c r="R116" s="31"/>
       <c r="T116" s="18"/>
       <c r="AC116" s="15"/>
-      <c r="AE116" s="30"/>
-      <c r="AF116" s="30"/>
+      <c r="AE116" s="31"/>
+      <c r="AF116" s="31"/>
       <c r="AH116" s="18"/>
     </row>
     <row r="117" ht="12.0" customHeight="true">
@@ -12065,20 +11991,20 @@
       <c r="Q118" t="n" s="20">
         <v>51.0</v>
       </c>
-      <c r="R118" t="s" s="31">
+      <c r="R118" t="s" s="32">
         <v>35</v>
       </c>
-      <c r="S118" s="31"/>
-      <c r="T118" s="32"/>
+      <c r="S118" s="32"/>
+      <c r="T118" s="33"/>
       <c r="AC118" s="15"/>
       <c r="AE118" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF118" t="s" s="31">
+      <c r="AF118" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG118" s="31"/>
-      <c r="AH118" s="32"/>
+      <c r="AG118" s="32"/>
+      <c r="AH118" s="33"/>
     </row>
     <row r="119" ht="12.0" customHeight="true">
       <c r="O119" s="15"/>
@@ -12120,7 +12046,7 @@
       <c r="Q121" t="s" s="187">
         <v>15</v>
       </c>
-      <c r="R121" t="s" s="33">
+      <c r="R121" t="s" s="30">
         <v>66</v>
       </c>
       <c r="S121" s="8"/>
@@ -12130,7 +12056,7 @@
       <c r="AE121" t="s" s="331">
         <v>48</v>
       </c>
-      <c r="AF121" t="s" s="33">
+      <c r="AF121" t="s" s="30">
         <v>68</v>
       </c>
       <c r="AG121" s="8"/>
@@ -12165,33 +12091,33 @@
       <c r="AH125" s="14"/>
     </row>
     <row r="126" ht="14.25" customHeight="true">
-      <c r="Q126" t="s" s="30">
+      <c r="Q126" t="s" s="31">
         <v>67</v>
       </c>
-      <c r="R126" s="30"/>
+      <c r="R126" s="31"/>
       <c r="T126" s="18"/>
-      <c r="AE126" t="s" s="30">
+      <c r="AE126" t="s" s="31">
         <v>113</v>
       </c>
-      <c r="AF126" s="30"/>
+      <c r="AF126" s="31"/>
       <c r="AH126" s="18"/>
     </row>
     <row r="127" ht="12.0" customHeight="true">
-      <c r="Q127" s="30"/>
-      <c r="R127" s="30"/>
+      <c r="Q127" s="31"/>
+      <c r="R127" s="31"/>
       <c r="T127" s="18"/>
-      <c r="AE127" s="30"/>
-      <c r="AF127" s="30"/>
+      <c r="AE127" s="31"/>
+      <c r="AF127" s="31"/>
       <c r="AH127" s="18"/>
     </row>
     <row r="128" ht="12.0" customHeight="true">
       <c r="O128" s="15"/>
-      <c r="Q128" s="30"/>
-      <c r="R128" s="30"/>
+      <c r="Q128" s="31"/>
+      <c r="R128" s="31"/>
       <c r="T128" s="18"/>
       <c r="AC128" s="15"/>
-      <c r="AE128" s="30"/>
-      <c r="AF128" s="30"/>
+      <c r="AE128" s="31"/>
+      <c r="AF128" s="31"/>
       <c r="AH128" s="18"/>
     </row>
     <row r="129" ht="12.0" customHeight="true">
@@ -12211,20 +12137,20 @@
       <c r="Q130" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="R130" t="s" s="31">
+      <c r="R130" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="S130" s="31"/>
-      <c r="T130" s="32"/>
+      <c r="S130" s="32"/>
+      <c r="T130" s="33"/>
       <c r="AC130" s="15"/>
       <c r="AE130" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF130" t="s" s="31">
+      <c r="AF130" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG130" s="31"/>
-      <c r="AH130" s="32"/>
+      <c r="AG130" s="32"/>
+      <c r="AH130" s="33"/>
     </row>
     <row r="131" ht="12.0" customHeight="true">
       <c r="O131" s="15"/>
@@ -12266,7 +12192,7 @@
       <c r="Q133" t="s" s="193">
         <v>15</v>
       </c>
-      <c r="R133" t="s" s="33">
+      <c r="R133" t="s" s="30">
         <v>68</v>
       </c>
       <c r="S133" s="8"/>
@@ -12276,7 +12202,7 @@
       <c r="AE133" t="s" s="337">
         <v>48</v>
       </c>
-      <c r="AF133" t="s" s="33">
+      <c r="AF133" t="s" s="30">
         <v>61</v>
       </c>
       <c r="AG133" s="8"/>
@@ -12311,33 +12237,33 @@
       <c r="AH137" s="14"/>
     </row>
     <row r="138" ht="14.25" customHeight="true">
-      <c r="Q138" t="s" s="30">
+      <c r="Q138" t="s" s="31">
         <v>69</v>
       </c>
-      <c r="R138" s="30"/>
+      <c r="R138" s="31"/>
       <c r="T138" s="18"/>
-      <c r="AE138" t="s" s="30">
+      <c r="AE138" t="s" s="31">
         <v>114</v>
       </c>
-      <c r="AF138" s="30"/>
+      <c r="AF138" s="31"/>
       <c r="AH138" s="18"/>
     </row>
     <row r="139" ht="12.0" customHeight="true">
-      <c r="Q139" s="30"/>
-      <c r="R139" s="30"/>
+      <c r="Q139" s="31"/>
+      <c r="R139" s="31"/>
       <c r="T139" s="18"/>
-      <c r="AE139" s="30"/>
-      <c r="AF139" s="30"/>
+      <c r="AE139" s="31"/>
+      <c r="AF139" s="31"/>
       <c r="AH139" s="18"/>
     </row>
     <row r="140" ht="12.0" customHeight="true">
       <c r="O140" s="15"/>
-      <c r="Q140" s="30"/>
-      <c r="R140" s="30"/>
+      <c r="Q140" s="31"/>
+      <c r="R140" s="31"/>
       <c r="T140" s="18"/>
       <c r="AC140" s="15"/>
-      <c r="AE140" s="30"/>
-      <c r="AF140" s="30"/>
+      <c r="AE140" s="31"/>
+      <c r="AF140" s="31"/>
       <c r="AH140" s="18"/>
     </row>
     <row r="141" ht="12.0" customHeight="true">
@@ -12357,20 +12283,20 @@
       <c r="Q142" t="n" s="20">
         <v>0.0</v>
       </c>
-      <c r="R142" t="s" s="31">
+      <c r="R142" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="S142" s="31"/>
-      <c r="T142" s="32"/>
+      <c r="S142" s="32"/>
+      <c r="T142" s="33"/>
       <c r="AC142" s="15"/>
       <c r="AE142" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF142" t="s" s="31">
+      <c r="AF142" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG142" s="31"/>
-      <c r="AH142" s="32"/>
+      <c r="AG142" s="32"/>
+      <c r="AH142" s="33"/>
     </row>
     <row r="143" ht="12.0" customHeight="true">
       <c r="O143" s="15"/>
@@ -12412,7 +12338,7 @@
       <c r="Q145" t="s" s="199">
         <v>15</v>
       </c>
-      <c r="R145" t="s" s="33">
+      <c r="R145" t="s" s="30">
         <v>70</v>
       </c>
       <c r="S145" s="8"/>
@@ -12422,7 +12348,7 @@
       <c r="AE145" t="s" s="343">
         <v>31</v>
       </c>
-      <c r="AF145" t="s" s="33">
+      <c r="AF145" t="s" s="30">
         <v>115</v>
       </c>
       <c r="AG145" s="8"/>
@@ -12457,33 +12383,33 @@
       <c r="AH149" s="14"/>
     </row>
     <row r="150" ht="14.25" customHeight="true">
-      <c r="Q150" t="s" s="30">
+      <c r="Q150" t="s" s="31">
         <v>71</v>
       </c>
-      <c r="R150" s="30"/>
+      <c r="R150" s="31"/>
       <c r="T150" s="18"/>
-      <c r="AE150" t="s" s="30">
+      <c r="AE150" t="s" s="31">
         <v>116</v>
       </c>
-      <c r="AF150" s="30"/>
+      <c r="AF150" s="31"/>
       <c r="AH150" s="18"/>
     </row>
     <row r="151" ht="12.0" customHeight="true">
-      <c r="Q151" s="30"/>
-      <c r="R151" s="30"/>
+      <c r="Q151" s="31"/>
+      <c r="R151" s="31"/>
       <c r="T151" s="18"/>
-      <c r="AE151" s="30"/>
-      <c r="AF151" s="30"/>
+      <c r="AE151" s="31"/>
+      <c r="AF151" s="31"/>
       <c r="AH151" s="18"/>
     </row>
     <row r="152" ht="12.0" customHeight="true">
       <c r="O152" s="15"/>
-      <c r="Q152" s="30"/>
-      <c r="R152" s="30"/>
+      <c r="Q152" s="31"/>
+      <c r="R152" s="31"/>
       <c r="T152" s="18"/>
       <c r="AC152" s="15"/>
-      <c r="AE152" s="30"/>
-      <c r="AF152" s="30"/>
+      <c r="AE152" s="31"/>
+      <c r="AF152" s="31"/>
       <c r="AH152" s="18"/>
     </row>
     <row r="153" ht="12.0" customHeight="true">
@@ -12503,20 +12429,20 @@
       <c r="Q154" t="n" s="20">
         <v>87.0</v>
       </c>
-      <c r="R154" t="s" s="31">
+      <c r="R154" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="S154" s="31"/>
-      <c r="T154" s="32"/>
+      <c r="S154" s="32"/>
+      <c r="T154" s="33"/>
       <c r="AC154" s="15"/>
       <c r="AE154" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF154" t="s" s="31">
+      <c r="AF154" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG154" s="31"/>
-      <c r="AH154" s="32"/>
+      <c r="AG154" s="32"/>
+      <c r="AH154" s="33"/>
     </row>
     <row r="155" ht="12.0" customHeight="true">
       <c r="O155" s="15"/>
@@ -12558,7 +12484,7 @@
       <c r="Q157" t="s" s="205">
         <v>15</v>
       </c>
-      <c r="R157" t="s" s="33">
+      <c r="R157" t="s" s="30">
         <v>72</v>
       </c>
       <c r="S157" s="8"/>
@@ -12568,7 +12494,7 @@
       <c r="AE157" t="s" s="349">
         <v>31</v>
       </c>
-      <c r="AF157" t="s" s="33">
+      <c r="AF157" t="s" s="30">
         <v>117</v>
       </c>
       <c r="AG157" s="8"/>
@@ -12603,33 +12529,33 @@
       <c r="AH161" s="14"/>
     </row>
     <row r="162" ht="14.25" customHeight="true">
-      <c r="Q162" t="s" s="30">
+      <c r="Q162" t="s" s="31">
         <v>73</v>
       </c>
-      <c r="R162" s="30"/>
+      <c r="R162" s="31"/>
       <c r="T162" s="18"/>
-      <c r="AE162" t="s" s="30">
+      <c r="AE162" t="s" s="31">
         <v>118</v>
       </c>
-      <c r="AF162" s="30"/>
+      <c r="AF162" s="31"/>
       <c r="AH162" s="18"/>
     </row>
     <row r="163" ht="12.0" customHeight="true">
-      <c r="Q163" s="30"/>
-      <c r="R163" s="30"/>
+      <c r="Q163" s="31"/>
+      <c r="R163" s="31"/>
       <c r="T163" s="18"/>
-      <c r="AE163" s="30"/>
-      <c r="AF163" s="30"/>
+      <c r="AE163" s="31"/>
+      <c r="AF163" s="31"/>
       <c r="AH163" s="18"/>
     </row>
     <row r="164" ht="12.0" customHeight="true">
       <c r="O164" s="15"/>
-      <c r="Q164" s="30"/>
-      <c r="R164" s="30"/>
+      <c r="Q164" s="31"/>
+      <c r="R164" s="31"/>
       <c r="T164" s="18"/>
       <c r="AC164" s="15"/>
-      <c r="AE164" s="30"/>
-      <c r="AF164" s="30"/>
+      <c r="AE164" s="31"/>
+      <c r="AF164" s="31"/>
       <c r="AH164" s="18"/>
     </row>
     <row r="165" ht="12.0" customHeight="true">
@@ -12649,20 +12575,20 @@
       <c r="Q166" t="n" s="20">
         <v>30.0</v>
       </c>
-      <c r="R166" t="s" s="31">
+      <c r="R166" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="S166" s="31"/>
-      <c r="T166" s="32"/>
+      <c r="S166" s="32"/>
+      <c r="T166" s="33"/>
       <c r="AC166" s="15"/>
       <c r="AE166" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF166" t="s" s="31">
+      <c r="AF166" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG166" s="31"/>
-      <c r="AH166" s="32"/>
+      <c r="AG166" s="32"/>
+      <c r="AH166" s="33"/>
     </row>
     <row r="167" ht="12.0" customHeight="true">
       <c r="O167" s="15"/>
@@ -12704,7 +12630,7 @@
       <c r="Q169" t="s" s="211">
         <v>15</v>
       </c>
-      <c r="R169" t="s" s="33">
+      <c r="R169" t="s" s="30">
         <v>74</v>
       </c>
       <c r="S169" s="8"/>
@@ -12714,7 +12640,7 @@
       <c r="AE169" t="s" s="355">
         <v>31</v>
       </c>
-      <c r="AF169" t="s" s="33">
+      <c r="AF169" t="s" s="30">
         <v>119</v>
       </c>
       <c r="AG169" s="8"/>
@@ -12749,33 +12675,33 @@
       <c r="AH173" s="14"/>
     </row>
     <row r="174" ht="14.25" customHeight="true">
-      <c r="Q174" t="s" s="30">
+      <c r="Q174" t="s" s="31">
         <v>75</v>
       </c>
-      <c r="R174" s="30"/>
+      <c r="R174" s="31"/>
       <c r="T174" s="18"/>
-      <c r="AE174" t="s" s="30">
+      <c r="AE174" t="s" s="31">
         <v>120</v>
       </c>
-      <c r="AF174" s="30"/>
+      <c r="AF174" s="31"/>
       <c r="AH174" s="18"/>
     </row>
     <row r="175" ht="12.0" customHeight="true">
-      <c r="Q175" s="30"/>
-      <c r="R175" s="30"/>
+      <c r="Q175" s="31"/>
+      <c r="R175" s="31"/>
       <c r="T175" s="18"/>
-      <c r="AE175" s="30"/>
-      <c r="AF175" s="30"/>
+      <c r="AE175" s="31"/>
+      <c r="AF175" s="31"/>
       <c r="AH175" s="18"/>
     </row>
     <row r="176" ht="12.0" customHeight="true">
       <c r="O176" s="15"/>
-      <c r="Q176" s="30"/>
-      <c r="R176" s="30"/>
+      <c r="Q176" s="31"/>
+      <c r="R176" s="31"/>
       <c r="T176" s="18"/>
       <c r="AC176" s="15"/>
-      <c r="AE176" s="30"/>
-      <c r="AF176" s="30"/>
+      <c r="AE176" s="31"/>
+      <c r="AF176" s="31"/>
       <c r="AH176" s="18"/>
     </row>
     <row r="177" ht="12.0" customHeight="true">
@@ -12795,20 +12721,20 @@
       <c r="Q178" t="n" s="20">
         <v>50.0</v>
       </c>
-      <c r="R178" t="s" s="31">
+      <c r="R178" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="S178" s="31"/>
-      <c r="T178" s="32"/>
+      <c r="S178" s="32"/>
+      <c r="T178" s="33"/>
       <c r="AC178" s="15"/>
       <c r="AE178" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF178" t="s" s="31">
+      <c r="AF178" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG178" s="31"/>
-      <c r="AH178" s="32"/>
+      <c r="AG178" s="32"/>
+      <c r="AH178" s="33"/>
     </row>
     <row r="179" ht="12.0" customHeight="true">
       <c r="O179" s="15"/>
@@ -12850,7 +12776,7 @@
       <c r="Q181" t="s" s="217">
         <v>15</v>
       </c>
-      <c r="R181" t="s" s="33">
+      <c r="R181" t="s" s="30">
         <v>76</v>
       </c>
       <c r="S181" s="8"/>
@@ -12860,7 +12786,7 @@
       <c r="AE181" t="s" s="361">
         <v>31</v>
       </c>
-      <c r="AF181" t="s" s="33">
+      <c r="AF181" t="s" s="30">
         <v>121</v>
       </c>
       <c r="AG181" s="8"/>
@@ -12895,33 +12821,33 @@
       <c r="AH185" s="14"/>
     </row>
     <row r="186" ht="14.25" customHeight="true">
-      <c r="Q186" t="s" s="30">
+      <c r="Q186" t="s" s="31">
         <v>77</v>
       </c>
-      <c r="R186" s="30"/>
+      <c r="R186" s="31"/>
       <c r="T186" s="18"/>
-      <c r="AE186" t="s" s="30">
+      <c r="AE186" t="s" s="31">
         <v>122</v>
       </c>
-      <c r="AF186" s="30"/>
+      <c r="AF186" s="31"/>
       <c r="AH186" s="18"/>
     </row>
     <row r="187" ht="12.0" customHeight="true">
-      <c r="Q187" s="30"/>
-      <c r="R187" s="30"/>
+      <c r="Q187" s="31"/>
+      <c r="R187" s="31"/>
       <c r="T187" s="18"/>
-      <c r="AE187" s="30"/>
-      <c r="AF187" s="30"/>
+      <c r="AE187" s="31"/>
+      <c r="AF187" s="31"/>
       <c r="AH187" s="18"/>
     </row>
     <row r="188" ht="12.0" customHeight="true">
       <c r="O188" s="15"/>
-      <c r="Q188" s="30"/>
-      <c r="R188" s="30"/>
+      <c r="Q188" s="31"/>
+      <c r="R188" s="31"/>
       <c r="T188" s="18"/>
       <c r="AC188" s="15"/>
-      <c r="AE188" s="30"/>
-      <c r="AF188" s="30"/>
+      <c r="AE188" s="31"/>
+      <c r="AF188" s="31"/>
       <c r="AH188" s="18"/>
     </row>
     <row r="189" ht="12.0" customHeight="true">
@@ -12941,20 +12867,20 @@
       <c r="Q190" t="n" s="20">
         <v>75.0</v>
       </c>
-      <c r="R190" t="s" s="31">
+      <c r="R190" t="s" s="32">
         <v>35</v>
       </c>
-      <c r="S190" s="31"/>
-      <c r="T190" s="32"/>
+      <c r="S190" s="32"/>
+      <c r="T190" s="33"/>
       <c r="AC190" s="15"/>
       <c r="AE190" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF190" t="s" s="31">
+      <c r="AF190" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG190" s="31"/>
-      <c r="AH190" s="32"/>
+      <c r="AG190" s="32"/>
+      <c r="AH190" s="33"/>
     </row>
     <row r="191" ht="12.0" customHeight="true">
       <c r="O191" s="15"/>
@@ -12996,7 +12922,7 @@
       <c r="Q193" t="s" s="223">
         <v>18</v>
       </c>
-      <c r="R193" t="s" s="33">
+      <c r="R193" t="s" s="30">
         <v>78</v>
       </c>
       <c r="S193" s="8"/>
@@ -13006,7 +12932,7 @@
       <c r="AE193" t="s" s="367">
         <v>31</v>
       </c>
-      <c r="AF193" t="s" s="33">
+      <c r="AF193" t="s" s="30">
         <v>123</v>
       </c>
       <c r="AG193" s="8"/>
@@ -13041,33 +12967,33 @@
       <c r="AH197" s="14"/>
     </row>
     <row r="198" ht="14.25" customHeight="true">
-      <c r="Q198" t="s" s="30">
+      <c r="Q198" t="s" s="31">
         <v>79</v>
       </c>
-      <c r="R198" s="30"/>
+      <c r="R198" s="31"/>
       <c r="T198" s="18"/>
-      <c r="AE198" t="s" s="30">
+      <c r="AE198" t="s" s="31">
         <v>124</v>
       </c>
-      <c r="AF198" s="30"/>
+      <c r="AF198" s="31"/>
       <c r="AH198" s="18"/>
     </row>
     <row r="199" ht="12.0" customHeight="true">
-      <c r="Q199" s="30"/>
-      <c r="R199" s="30"/>
+      <c r="Q199" s="31"/>
+      <c r="R199" s="31"/>
       <c r="T199" s="18"/>
-      <c r="AE199" s="30"/>
-      <c r="AF199" s="30"/>
+      <c r="AE199" s="31"/>
+      <c r="AF199" s="31"/>
       <c r="AH199" s="18"/>
     </row>
     <row r="200" ht="12.0" customHeight="true">
       <c r="O200" s="15"/>
-      <c r="Q200" s="30"/>
-      <c r="R200" s="30"/>
+      <c r="Q200" s="31"/>
+      <c r="R200" s="31"/>
       <c r="T200" s="18"/>
       <c r="AC200" s="15"/>
-      <c r="AE200" s="30"/>
-      <c r="AF200" s="30"/>
+      <c r="AE200" s="31"/>
+      <c r="AF200" s="31"/>
       <c r="AH200" s="18"/>
     </row>
     <row r="201" ht="12.0" customHeight="true">
@@ -13087,20 +13013,20 @@
       <c r="Q202" t="n" s="20">
         <v>25.0</v>
       </c>
-      <c r="R202" t="s" s="31">
+      <c r="R202" t="s" s="32">
         <v>80</v>
       </c>
-      <c r="S202" s="31"/>
-      <c r="T202" s="32"/>
+      <c r="S202" s="32"/>
+      <c r="T202" s="33"/>
       <c r="AC202" s="15"/>
       <c r="AE202" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF202" t="s" s="31">
+      <c r="AF202" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG202" s="31"/>
-      <c r="AH202" s="32"/>
+      <c r="AG202" s="32"/>
+      <c r="AH202" s="33"/>
     </row>
     <row r="203" ht="12.0" customHeight="true">
       <c r="O203" s="15"/>
@@ -13142,7 +13068,7 @@
       <c r="Q205" t="s" s="229">
         <v>18</v>
       </c>
-      <c r="R205" t="s" s="33">
+      <c r="R205" t="s" s="30">
         <v>81</v>
       </c>
       <c r="S205" s="8"/>
@@ -13152,7 +13078,7 @@
       <c r="AE205" t="s" s="373">
         <v>31</v>
       </c>
-      <c r="AF205" t="s" s="33">
+      <c r="AF205" t="s" s="30">
         <v>125</v>
       </c>
       <c r="AG205" s="8"/>
@@ -13175,21 +13101,21 @@
       <c r="AH209" s="14"/>
     </row>
     <row r="210" ht="14.25" customHeight="true">
-      <c r="AE210" t="s" s="30">
+      <c r="AE210" t="s" s="31">
         <v>126</v>
       </c>
-      <c r="AF210" s="30"/>
+      <c r="AF210" s="31"/>
       <c r="AH210" s="18"/>
     </row>
     <row r="211" ht="12.0" customHeight="true">
-      <c r="AE211" s="30"/>
-      <c r="AF211" s="30"/>
+      <c r="AE211" s="31"/>
+      <c r="AF211" s="31"/>
       <c r="AH211" s="18"/>
     </row>
     <row r="212" ht="12.0" customHeight="true">
       <c r="AC212" s="15"/>
-      <c r="AE212" s="30"/>
-      <c r="AF212" s="30"/>
+      <c r="AE212" s="31"/>
+      <c r="AF212" s="31"/>
       <c r="AH212" s="18"/>
     </row>
     <row r="213" ht="12.0" customHeight="true">
@@ -13204,11 +13130,11 @@
       <c r="AE214" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF214" t="s" s="31">
+      <c r="AF214" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG214" s="31"/>
-      <c r="AH214" s="32"/>
+      <c r="AG214" s="32"/>
+      <c r="AH214" s="33"/>
     </row>
     <row r="215" ht="12.0" customHeight="true">
       <c r="AC215" s="15"/>
@@ -13235,7 +13161,7 @@
       <c r="AE217" t="s" s="379">
         <v>31</v>
       </c>
-      <c r="AF217" t="s" s="33">
+      <c r="AF217" t="s" s="30">
         <v>99</v>
       </c>
       <c r="AG217" s="8"/>
@@ -13258,21 +13184,21 @@
       <c r="AH221" s="14"/>
     </row>
     <row r="222" ht="14.25" customHeight="true">
-      <c r="AE222" t="s" s="30">
+      <c r="AE222" t="s" s="31">
         <v>127</v>
       </c>
-      <c r="AF222" s="30"/>
+      <c r="AF222" s="31"/>
       <c r="AH222" s="18"/>
     </row>
     <row r="223" ht="12.0" customHeight="true">
-      <c r="AE223" s="30"/>
-      <c r="AF223" s="30"/>
+      <c r="AE223" s="31"/>
+      <c r="AF223" s="31"/>
       <c r="AH223" s="18"/>
     </row>
     <row r="224" ht="12.0" customHeight="true">
       <c r="AC224" s="15"/>
-      <c r="AE224" s="30"/>
-      <c r="AF224" s="30"/>
+      <c r="AE224" s="31"/>
+      <c r="AF224" s="31"/>
       <c r="AH224" s="18"/>
     </row>
     <row r="225" ht="12.0" customHeight="true">
@@ -13287,11 +13213,11 @@
       <c r="AE226" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF226" t="s" s="31">
+      <c r="AF226" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG226" s="31"/>
-      <c r="AH226" s="32"/>
+      <c r="AG226" s="32"/>
+      <c r="AH226" s="33"/>
     </row>
     <row r="227" ht="12.0" customHeight="true">
       <c r="AC227" s="15"/>
@@ -13318,7 +13244,7 @@
       <c r="AE229" t="s" s="385">
         <v>31</v>
       </c>
-      <c r="AF229" t="s" s="33">
+      <c r="AF229" t="s" s="30">
         <v>101</v>
       </c>
       <c r="AG229" s="8"/>
@@ -13341,21 +13267,21 @@
       <c r="AH233" s="14"/>
     </row>
     <row r="234" ht="14.25" customHeight="true">
-      <c r="AE234" t="s" s="30">
+      <c r="AE234" t="s" s="31">
         <v>128</v>
       </c>
-      <c r="AF234" s="30"/>
+      <c r="AF234" s="31"/>
       <c r="AH234" s="18"/>
     </row>
     <row r="235" ht="12.0" customHeight="true">
-      <c r="AE235" s="30"/>
-      <c r="AF235" s="30"/>
+      <c r="AE235" s="31"/>
+      <c r="AF235" s="31"/>
       <c r="AH235" s="18"/>
     </row>
     <row r="236" ht="12.0" customHeight="true">
       <c r="AC236" s="15"/>
-      <c r="AE236" s="30"/>
-      <c r="AF236" s="30"/>
+      <c r="AE236" s="31"/>
+      <c r="AF236" s="31"/>
       <c r="AH236" s="18"/>
     </row>
     <row r="237" ht="12.0" customHeight="true">
@@ -13370,11 +13296,11 @@
       <c r="AE238" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF238" t="s" s="31">
+      <c r="AF238" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG238" s="31"/>
-      <c r="AH238" s="32"/>
+      <c r="AG238" s="32"/>
+      <c r="AH238" s="33"/>
     </row>
     <row r="239" ht="12.0" customHeight="true">
       <c r="AC239" s="15"/>
@@ -13401,7 +13327,7 @@
       <c r="AE241" t="s" s="391">
         <v>31</v>
       </c>
-      <c r="AF241" t="s" s="33">
+      <c r="AF241" t="s" s="30">
         <v>103</v>
       </c>
       <c r="AG241" s="8"/>
@@ -13424,21 +13350,21 @@
       <c r="AH245" s="14"/>
     </row>
     <row r="246" ht="14.25" customHeight="true">
-      <c r="AE246" t="s" s="30">
+      <c r="AE246" t="s" s="31">
         <v>129</v>
       </c>
-      <c r="AF246" s="30"/>
+      <c r="AF246" s="31"/>
       <c r="AH246" s="18"/>
     </row>
     <row r="247" ht="12.0" customHeight="true">
-      <c r="AE247" s="30"/>
-      <c r="AF247" s="30"/>
+      <c r="AE247" s="31"/>
+      <c r="AF247" s="31"/>
       <c r="AH247" s="18"/>
     </row>
     <row r="248" ht="12.0" customHeight="true">
       <c r="AC248" s="15"/>
-      <c r="AE248" s="30"/>
-      <c r="AF248" s="30"/>
+      <c r="AE248" s="31"/>
+      <c r="AF248" s="31"/>
       <c r="AH248" s="18"/>
     </row>
     <row r="249" ht="12.0" customHeight="true">
@@ -13453,11 +13379,11 @@
       <c r="AE250" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF250" t="s" s="31">
+      <c r="AF250" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG250" s="31"/>
-      <c r="AH250" s="32"/>
+      <c r="AG250" s="32"/>
+      <c r="AH250" s="33"/>
     </row>
     <row r="251" ht="12.0" customHeight="true">
       <c r="AC251" s="15"/>
@@ -13484,7 +13410,7 @@
       <c r="AE253" t="s" s="397">
         <v>31</v>
       </c>
-      <c r="AF253" t="s" s="33">
+      <c r="AF253" t="s" s="30">
         <v>130</v>
       </c>
       <c r="AG253" s="8"/>
@@ -13507,21 +13433,21 @@
       <c r="AH257" s="14"/>
     </row>
     <row r="258" ht="14.25" customHeight="true">
-      <c r="AE258" t="s" s="30">
+      <c r="AE258" t="s" s="31">
         <v>131</v>
       </c>
-      <c r="AF258" s="30"/>
+      <c r="AF258" s="31"/>
       <c r="AH258" s="18"/>
     </row>
     <row r="259" ht="12.0" customHeight="true">
-      <c r="AE259" s="30"/>
-      <c r="AF259" s="30"/>
+      <c r="AE259" s="31"/>
+      <c r="AF259" s="31"/>
       <c r="AH259" s="18"/>
     </row>
     <row r="260" ht="12.0" customHeight="true">
       <c r="AC260" s="15"/>
-      <c r="AE260" s="30"/>
-      <c r="AF260" s="30"/>
+      <c r="AE260" s="31"/>
+      <c r="AF260" s="31"/>
       <c r="AH260" s="18"/>
     </row>
     <row r="261" ht="12.0" customHeight="true">
@@ -13536,11 +13462,11 @@
       <c r="AE262" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF262" t="s" s="31">
+      <c r="AF262" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG262" s="31"/>
-      <c r="AH262" s="32"/>
+      <c r="AG262" s="32"/>
+      <c r="AH262" s="33"/>
     </row>
     <row r="263" ht="12.0" customHeight="true">
       <c r="AC263" s="15"/>
@@ -13567,7 +13493,7 @@
       <c r="AE265" t="s" s="403">
         <v>31</v>
       </c>
-      <c r="AF265" t="s" s="33">
+      <c r="AF265" t="s" s="30">
         <v>19</v>
       </c>
       <c r="AG265" s="8"/>
@@ -13590,21 +13516,21 @@
       <c r="AH269" s="14"/>
     </row>
     <row r="270" ht="14.25" customHeight="true">
-      <c r="AE270" t="s" s="30">
+      <c r="AE270" t="s" s="31">
         <v>132</v>
       </c>
-      <c r="AF270" s="30"/>
+      <c r="AF270" s="31"/>
       <c r="AH270" s="18"/>
     </row>
     <row r="271" ht="12.0" customHeight="true">
-      <c r="AE271" s="30"/>
-      <c r="AF271" s="30"/>
+      <c r="AE271" s="31"/>
+      <c r="AF271" s="31"/>
       <c r="AH271" s="18"/>
     </row>
     <row r="272" ht="12.0" customHeight="true">
       <c r="AC272" s="15"/>
-      <c r="AE272" s="30"/>
-      <c r="AF272" s="30"/>
+      <c r="AE272" s="31"/>
+      <c r="AF272" s="31"/>
       <c r="AH272" s="18"/>
     </row>
     <row r="273" ht="12.0" customHeight="true">
@@ -13619,11 +13545,11 @@
       <c r="AE274" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF274" t="s" s="31">
+      <c r="AF274" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG274" s="31"/>
-      <c r="AH274" s="32"/>
+      <c r="AG274" s="32"/>
+      <c r="AH274" s="33"/>
     </row>
     <row r="275" ht="12.0" customHeight="true">
       <c r="AC275" s="15"/>
@@ -13650,7 +13576,7 @@
       <c r="AE277" t="s" s="409">
         <v>31</v>
       </c>
-      <c r="AF277" t="s" s="33">
+      <c r="AF277" t="s" s="30">
         <v>133</v>
       </c>
       <c r="AG277" s="8"/>
@@ -13673,21 +13599,21 @@
       <c r="AH281" s="14"/>
     </row>
     <row r="282" ht="14.25" customHeight="true">
-      <c r="AE282" t="s" s="30">
+      <c r="AE282" t="s" s="31">
         <v>134</v>
       </c>
-      <c r="AF282" s="30"/>
+      <c r="AF282" s="31"/>
       <c r="AH282" s="18"/>
     </row>
     <row r="283" ht="12.0" customHeight="true">
-      <c r="AE283" s="30"/>
-      <c r="AF283" s="30"/>
+      <c r="AE283" s="31"/>
+      <c r="AF283" s="31"/>
       <c r="AH283" s="18"/>
     </row>
     <row r="284" ht="12.0" customHeight="true">
       <c r="AC284" s="15"/>
-      <c r="AE284" s="30"/>
-      <c r="AF284" s="30"/>
+      <c r="AE284" s="31"/>
+      <c r="AF284" s="31"/>
       <c r="AH284" s="18"/>
     </row>
     <row r="285" ht="12.0" customHeight="true">
@@ -13702,11 +13628,11 @@
       <c r="AE286" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF286" t="s" s="31">
+      <c r="AF286" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG286" s="31"/>
-      <c r="AH286" s="32"/>
+      <c r="AG286" s="32"/>
+      <c r="AH286" s="33"/>
     </row>
     <row r="287" ht="12.0" customHeight="true">
       <c r="AC287" s="15"/>
@@ -13733,7 +13659,7 @@
       <c r="AE289" t="s" s="415">
         <v>31</v>
       </c>
-      <c r="AF289" t="s" s="33">
+      <c r="AF289" t="s" s="30">
         <v>111</v>
       </c>
       <c r="AG289" s="8"/>
@@ -13756,21 +13682,21 @@
       <c r="AH293" s="14"/>
     </row>
     <row r="294" ht="14.25" customHeight="true">
-      <c r="AE294" t="s" s="30">
+      <c r="AE294" t="s" s="31">
         <v>135</v>
       </c>
-      <c r="AF294" s="30"/>
+      <c r="AF294" s="31"/>
       <c r="AH294" s="18"/>
     </row>
     <row r="295" ht="12.0" customHeight="true">
-      <c r="AE295" s="30"/>
-      <c r="AF295" s="30"/>
+      <c r="AE295" s="31"/>
+      <c r="AF295" s="31"/>
       <c r="AH295" s="18"/>
     </row>
     <row r="296" ht="12.0" customHeight="true">
       <c r="AC296" s="15"/>
-      <c r="AE296" s="30"/>
-      <c r="AF296" s="30"/>
+      <c r="AE296" s="31"/>
+      <c r="AF296" s="31"/>
       <c r="AH296" s="18"/>
     </row>
     <row r="297" ht="12.0" customHeight="true">
@@ -13785,11 +13711,11 @@
       <c r="AE298" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF298" t="s" s="31">
+      <c r="AF298" t="s" s="32">
         <v>136</v>
       </c>
-      <c r="AG298" s="31"/>
-      <c r="AH298" s="32"/>
+      <c r="AG298" s="32"/>
+      <c r="AH298" s="33"/>
     </row>
     <row r="299" ht="12.0" customHeight="true">
       <c r="AC299" s="15"/>
@@ -13816,7 +13742,7 @@
       <c r="AE301" t="s" s="421">
         <v>31</v>
       </c>
-      <c r="AF301" t="s" s="33">
+      <c r="AF301" t="s" s="30">
         <v>137</v>
       </c>
       <c r="AG301" s="8"/>
@@ -13839,21 +13765,21 @@
       <c r="AH305" s="14"/>
     </row>
     <row r="306" ht="14.25" customHeight="true">
-      <c r="AE306" t="s" s="30">
+      <c r="AE306" t="s" s="31">
         <v>138</v>
       </c>
-      <c r="AF306" s="30"/>
+      <c r="AF306" s="31"/>
       <c r="AH306" s="18"/>
     </row>
     <row r="307" ht="12.0" customHeight="true">
-      <c r="AE307" s="30"/>
-      <c r="AF307" s="30"/>
+      <c r="AE307" s="31"/>
+      <c r="AF307" s="31"/>
       <c r="AH307" s="18"/>
     </row>
     <row r="308" ht="12.0" customHeight="true">
       <c r="AC308" s="15"/>
-      <c r="AE308" s="30"/>
-      <c r="AF308" s="30"/>
+      <c r="AE308" s="31"/>
+      <c r="AF308" s="31"/>
       <c r="AH308" s="18"/>
     </row>
     <row r="309" ht="12.0" customHeight="true">
@@ -13868,11 +13794,11 @@
       <c r="AE310" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF310" t="s" s="31">
+      <c r="AF310" t="s" s="32">
         <v>136</v>
       </c>
-      <c r="AG310" s="31"/>
-      <c r="AH310" s="32"/>
+      <c r="AG310" s="32"/>
+      <c r="AH310" s="33"/>
     </row>
     <row r="311" ht="12.0" customHeight="true">
       <c r="AC311" s="15"/>
@@ -13899,7 +13825,7 @@
       <c r="AE313" t="s" s="427">
         <v>31</v>
       </c>
-      <c r="AF313" t="s" s="33">
+      <c r="AF313" t="s" s="30">
         <v>139</v>
       </c>
       <c r="AG313" s="8"/>
@@ -13922,21 +13848,21 @@
       <c r="AH317" s="14"/>
     </row>
     <row r="318" ht="14.25" customHeight="true">
-      <c r="AE318" t="s" s="30">
+      <c r="AE318" t="s" s="31">
         <v>140</v>
       </c>
-      <c r="AF318" s="30"/>
+      <c r="AF318" s="31"/>
       <c r="AH318" s="18"/>
     </row>
     <row r="319" ht="12.0" customHeight="true">
-      <c r="AE319" s="30"/>
-      <c r="AF319" s="30"/>
+      <c r="AE319" s="31"/>
+      <c r="AF319" s="31"/>
       <c r="AH319" s="18"/>
     </row>
     <row r="320" ht="12.0" customHeight="true">
       <c r="AC320" s="15"/>
-      <c r="AE320" s="30"/>
-      <c r="AF320" s="30"/>
+      <c r="AE320" s="31"/>
+      <c r="AF320" s="31"/>
       <c r="AH320" s="18"/>
     </row>
     <row r="321" ht="12.0" customHeight="true">
@@ -13951,11 +13877,11 @@
       <c r="AE322" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF322" t="s" s="31">
+      <c r="AF322" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG322" s="31"/>
-      <c r="AH322" s="32"/>
+      <c r="AG322" s="32"/>
+      <c r="AH322" s="33"/>
     </row>
     <row r="323" ht="12.0" customHeight="true">
       <c r="AC323" s="15"/>
@@ -13982,7 +13908,7 @@
       <c r="AE325" t="s" s="433">
         <v>31</v>
       </c>
-      <c r="AF325" t="s" s="33">
+      <c r="AF325" t="s" s="30">
         <v>141</v>
       </c>
       <c r="AG325" s="8"/>
@@ -14005,21 +13931,21 @@
       <c r="AH329" s="14"/>
     </row>
     <row r="330" ht="14.25" customHeight="true">
-      <c r="AE330" t="s" s="30">
+      <c r="AE330" t="s" s="31">
         <v>142</v>
       </c>
-      <c r="AF330" s="30"/>
+      <c r="AF330" s="31"/>
       <c r="AH330" s="18"/>
     </row>
     <row r="331" ht="12.0" customHeight="true">
-      <c r="AE331" s="30"/>
-      <c r="AF331" s="30"/>
+      <c r="AE331" s="31"/>
+      <c r="AF331" s="31"/>
       <c r="AH331" s="18"/>
     </row>
     <row r="332" ht="12.0" customHeight="true">
       <c r="AC332" s="15"/>
-      <c r="AE332" s="30"/>
-      <c r="AF332" s="30"/>
+      <c r="AE332" s="31"/>
+      <c r="AF332" s="31"/>
       <c r="AH332" s="18"/>
     </row>
     <row r="333" ht="12.0" customHeight="true">
@@ -14034,11 +13960,11 @@
       <c r="AE334" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF334" t="s" s="31">
+      <c r="AF334" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG334" s="31"/>
-      <c r="AH334" s="32"/>
+      <c r="AG334" s="32"/>
+      <c r="AH334" s="33"/>
     </row>
     <row r="335" ht="12.0" customHeight="true">
       <c r="AC335" s="15"/>
@@ -14065,7 +13991,7 @@
       <c r="AE337" t="s" s="439">
         <v>31</v>
       </c>
-      <c r="AF337" t="s" s="33">
+      <c r="AF337" t="s" s="30">
         <v>143</v>
       </c>
       <c r="AG337" s="8"/>
@@ -14088,21 +14014,21 @@
       <c r="AH341" s="14"/>
     </row>
     <row r="342" ht="14.25" customHeight="true">
-      <c r="AE342" t="s" s="30">
+      <c r="AE342" t="s" s="31">
         <v>144</v>
       </c>
-      <c r="AF342" s="30"/>
+      <c r="AF342" s="31"/>
       <c r="AH342" s="18"/>
     </row>
     <row r="343" ht="12.0" customHeight="true">
-      <c r="AE343" s="30"/>
-      <c r="AF343" s="30"/>
+      <c r="AE343" s="31"/>
+      <c r="AF343" s="31"/>
       <c r="AH343" s="18"/>
     </row>
     <row r="344" ht="12.0" customHeight="true">
       <c r="AC344" s="15"/>
-      <c r="AE344" s="30"/>
-      <c r="AF344" s="30"/>
+      <c r="AE344" s="31"/>
+      <c r="AF344" s="31"/>
       <c r="AH344" s="18"/>
     </row>
     <row r="345" ht="12.0" customHeight="true">
@@ -14117,11 +14043,11 @@
       <c r="AE346" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF346" t="s" s="31">
+      <c r="AF346" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG346" s="31"/>
-      <c r="AH346" s="32"/>
+      <c r="AG346" s="32"/>
+      <c r="AH346" s="33"/>
     </row>
     <row r="347" ht="12.0" customHeight="true">
       <c r="AC347" s="15"/>
@@ -14148,7 +14074,7 @@
       <c r="AE349" t="s" s="445">
         <v>31</v>
       </c>
-      <c r="AF349" t="s" s="33">
+      <c r="AF349" t="s" s="30">
         <v>145</v>
       </c>
       <c r="AG349" s="8"/>
@@ -14171,21 +14097,21 @@
       <c r="AH353" s="14"/>
     </row>
     <row r="354" ht="14.25" customHeight="true">
-      <c r="AE354" t="s" s="30">
+      <c r="AE354" t="s" s="31">
         <v>146</v>
       </c>
-      <c r="AF354" s="30"/>
+      <c r="AF354" s="31"/>
       <c r="AH354" s="18"/>
     </row>
     <row r="355" ht="12.0" customHeight="true">
-      <c r="AE355" s="30"/>
-      <c r="AF355" s="30"/>
+      <c r="AE355" s="31"/>
+      <c r="AF355" s="31"/>
       <c r="AH355" s="18"/>
     </row>
     <row r="356" ht="12.0" customHeight="true">
       <c r="AC356" s="15"/>
-      <c r="AE356" s="30"/>
-      <c r="AF356" s="30"/>
+      <c r="AE356" s="31"/>
+      <c r="AF356" s="31"/>
       <c r="AH356" s="18"/>
     </row>
     <row r="357" ht="12.0" customHeight="true">
@@ -14200,11 +14126,11 @@
       <c r="AE358" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF358" t="s" s="31">
+      <c r="AF358" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG358" s="31"/>
-      <c r="AH358" s="32"/>
+      <c r="AG358" s="32"/>
+      <c r="AH358" s="33"/>
     </row>
     <row r="359" ht="12.0" customHeight="true">
       <c r="AC359" s="15"/>
@@ -14231,7 +14157,7 @@
       <c r="AE361" t="s" s="451">
         <v>31</v>
       </c>
-      <c r="AF361" t="s" s="33">
+      <c r="AF361" t="s" s="30">
         <v>147</v>
       </c>
       <c r="AG361" s="8"/>
@@ -14254,21 +14180,21 @@
       <c r="AH365" s="14"/>
     </row>
     <row r="366" ht="14.25" customHeight="true">
-      <c r="AE366" t="s" s="30">
+      <c r="AE366" t="s" s="31">
         <v>148</v>
       </c>
-      <c r="AF366" s="30"/>
+      <c r="AF366" s="31"/>
       <c r="AH366" s="18"/>
     </row>
     <row r="367" ht="12.0" customHeight="true">
-      <c r="AE367" s="30"/>
-      <c r="AF367" s="30"/>
+      <c r="AE367" s="31"/>
+      <c r="AF367" s="31"/>
       <c r="AH367" s="18"/>
     </row>
     <row r="368" ht="12.0" customHeight="true">
       <c r="AC368" s="15"/>
-      <c r="AE368" s="30"/>
-      <c r="AF368" s="30"/>
+      <c r="AE368" s="31"/>
+      <c r="AF368" s="31"/>
       <c r="AH368" s="18"/>
     </row>
     <row r="369" ht="12.0" customHeight="true">
@@ -14283,11 +14209,11 @@
       <c r="AE370" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF370" t="s" s="31">
+      <c r="AF370" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG370" s="31"/>
-      <c r="AH370" s="32"/>
+      <c r="AG370" s="32"/>
+      <c r="AH370" s="33"/>
     </row>
     <row r="371" ht="12.0" customHeight="true">
       <c r="AC371" s="15"/>
@@ -14314,7 +14240,7 @@
       <c r="AE373" t="s" s="457">
         <v>31</v>
       </c>
-      <c r="AF373" t="s" s="33">
+      <c r="AF373" t="s" s="30">
         <v>149</v>
       </c>
       <c r="AG373" s="8"/>
@@ -14337,21 +14263,21 @@
       <c r="AH377" s="14"/>
     </row>
     <row r="378" ht="14.25" customHeight="true">
-      <c r="AE378" t="s" s="30">
+      <c r="AE378" t="s" s="31">
         <v>150</v>
       </c>
-      <c r="AF378" s="30"/>
+      <c r="AF378" s="31"/>
       <c r="AH378" s="18"/>
     </row>
     <row r="379" ht="12.0" customHeight="true">
-      <c r="AE379" s="30"/>
-      <c r="AF379" s="30"/>
+      <c r="AE379" s="31"/>
+      <c r="AF379" s="31"/>
       <c r="AH379" s="18"/>
     </row>
     <row r="380" ht="12.0" customHeight="true">
       <c r="AC380" s="15"/>
-      <c r="AE380" s="30"/>
-      <c r="AF380" s="30"/>
+      <c r="AE380" s="31"/>
+      <c r="AF380" s="31"/>
       <c r="AH380" s="18"/>
     </row>
     <row r="381" ht="12.0" customHeight="true">
@@ -14366,11 +14292,11 @@
       <c r="AE382" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF382" t="s" s="31">
+      <c r="AF382" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG382" s="31"/>
-      <c r="AH382" s="32"/>
+      <c r="AG382" s="32"/>
+      <c r="AH382" s="33"/>
     </row>
     <row r="383" ht="12.0" customHeight="true">
       <c r="AC383" s="15"/>
@@ -14397,7 +14323,7 @@
       <c r="AE385" t="s" s="463">
         <v>31</v>
       </c>
-      <c r="AF385" t="s" s="33">
+      <c r="AF385" t="s" s="30">
         <v>151</v>
       </c>
       <c r="AG385" s="8"/>
@@ -14420,21 +14346,21 @@
       <c r="AH389" s="14"/>
     </row>
     <row r="390" ht="14.25" customHeight="true">
-      <c r="AE390" t="s" s="30">
+      <c r="AE390" t="s" s="31">
         <v>152</v>
       </c>
-      <c r="AF390" s="30"/>
+      <c r="AF390" s="31"/>
       <c r="AH390" s="18"/>
     </row>
     <row r="391" ht="12.0" customHeight="true">
-      <c r="AE391" s="30"/>
-      <c r="AF391" s="30"/>
+      <c r="AE391" s="31"/>
+      <c r="AF391" s="31"/>
       <c r="AH391" s="18"/>
     </row>
     <row r="392" ht="12.0" customHeight="true">
       <c r="AC392" s="15"/>
-      <c r="AE392" s="30"/>
-      <c r="AF392" s="30"/>
+      <c r="AE392" s="31"/>
+      <c r="AF392" s="31"/>
       <c r="AH392" s="18"/>
     </row>
     <row r="393" ht="12.0" customHeight="true">
@@ -14449,11 +14375,11 @@
       <c r="AE394" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF394" t="s" s="31">
+      <c r="AF394" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG394" s="31"/>
-      <c r="AH394" s="32"/>
+      <c r="AG394" s="32"/>
+      <c r="AH394" s="33"/>
     </row>
     <row r="395" ht="12.0" customHeight="true">
       <c r="AC395" s="15"/>
@@ -14480,7 +14406,7 @@
       <c r="AE397" t="s" s="469">
         <v>15</v>
       </c>
-      <c r="AF397" t="s" s="33">
+      <c r="AF397" t="s" s="30">
         <v>153</v>
       </c>
       <c r="AG397" s="8"/>
@@ -14503,21 +14429,21 @@
       <c r="AH401" s="14"/>
     </row>
     <row r="402" ht="14.25" customHeight="true">
-      <c r="AE402" t="s" s="30">
+      <c r="AE402" t="s" s="31">
         <v>154</v>
       </c>
-      <c r="AF402" s="30"/>
+      <c r="AF402" s="31"/>
       <c r="AH402" s="18"/>
     </row>
     <row r="403" ht="12.0" customHeight="true">
-      <c r="AE403" s="30"/>
-      <c r="AF403" s="30"/>
+      <c r="AE403" s="31"/>
+      <c r="AF403" s="31"/>
       <c r="AH403" s="18"/>
     </row>
     <row r="404" ht="12.0" customHeight="true">
       <c r="AC404" s="15"/>
-      <c r="AE404" s="30"/>
-      <c r="AF404" s="30"/>
+      <c r="AE404" s="31"/>
+      <c r="AF404" s="31"/>
       <c r="AH404" s="18"/>
     </row>
     <row r="405" ht="12.0" customHeight="true">
@@ -14532,11 +14458,11 @@
       <c r="AE406" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF406" t="s" s="31">
+      <c r="AF406" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG406" s="31"/>
-      <c r="AH406" s="32"/>
+      <c r="AG406" s="32"/>
+      <c r="AH406" s="33"/>
     </row>
     <row r="407" ht="12.0" customHeight="true">
       <c r="AC407" s="15"/>
@@ -14563,7 +14489,7 @@
       <c r="AE409" t="s" s="475">
         <v>15</v>
       </c>
-      <c r="AF409" t="s" s="33">
+      <c r="AF409" t="s" s="30">
         <v>125</v>
       </c>
       <c r="AG409" s="8"/>
@@ -14586,21 +14512,21 @@
       <c r="AH413" s="14"/>
     </row>
     <row r="414" ht="14.25" customHeight="true">
-      <c r="AE414" t="s" s="30">
+      <c r="AE414" t="s" s="31">
         <v>155</v>
       </c>
-      <c r="AF414" s="30"/>
+      <c r="AF414" s="31"/>
       <c r="AH414" s="18"/>
     </row>
     <row r="415" ht="12.0" customHeight="true">
-      <c r="AE415" s="30"/>
-      <c r="AF415" s="30"/>
+      <c r="AE415" s="31"/>
+      <c r="AF415" s="31"/>
       <c r="AH415" s="18"/>
     </row>
     <row r="416" ht="12.0" customHeight="true">
       <c r="AC416" s="15"/>
-      <c r="AE416" s="30"/>
-      <c r="AF416" s="30"/>
+      <c r="AE416" s="31"/>
+      <c r="AF416" s="31"/>
       <c r="AH416" s="18"/>
     </row>
     <row r="417" ht="12.0" customHeight="true">
@@ -14615,11 +14541,11 @@
       <c r="AE418" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF418" t="s" s="31">
+      <c r="AF418" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG418" s="31"/>
-      <c r="AH418" s="32"/>
+      <c r="AG418" s="32"/>
+      <c r="AH418" s="33"/>
     </row>
     <row r="419" ht="12.0" customHeight="true">
       <c r="AC419" s="15"/>
@@ -14646,7 +14572,7 @@
       <c r="AE421" t="s" s="481">
         <v>15</v>
       </c>
-      <c r="AF421" t="s" s="33">
+      <c r="AF421" t="s" s="30">
         <v>156</v>
       </c>
       <c r="AG421" s="8"/>
@@ -14669,21 +14595,21 @@
       <c r="AH425" s="14"/>
     </row>
     <row r="426" ht="14.25" customHeight="true">
-      <c r="AE426" t="s" s="30">
+      <c r="AE426" t="s" s="31">
         <v>157</v>
       </c>
-      <c r="AF426" s="30"/>
+      <c r="AF426" s="31"/>
       <c r="AH426" s="18"/>
     </row>
     <row r="427" ht="12.0" customHeight="true">
-      <c r="AE427" s="30"/>
-      <c r="AF427" s="30"/>
+      <c r="AE427" s="31"/>
+      <c r="AF427" s="31"/>
       <c r="AH427" s="18"/>
     </row>
     <row r="428" ht="12.0" customHeight="true">
       <c r="AC428" s="15"/>
-      <c r="AE428" s="30"/>
-      <c r="AF428" s="30"/>
+      <c r="AE428" s="31"/>
+      <c r="AF428" s="31"/>
       <c r="AH428" s="18"/>
     </row>
     <row r="429" ht="12.0" customHeight="true">
@@ -14698,11 +14624,11 @@
       <c r="AE430" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF430" t="s" s="31">
+      <c r="AF430" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG430" s="31"/>
-      <c r="AH430" s="32"/>
+      <c r="AG430" s="32"/>
+      <c r="AH430" s="33"/>
     </row>
     <row r="431" ht="12.0" customHeight="true">
       <c r="AC431" s="15"/>
@@ -14729,7 +14655,7 @@
       <c r="AE433" t="s" s="487">
         <v>15</v>
       </c>
-      <c r="AF433" t="s" s="33">
+      <c r="AF433" t="s" s="30">
         <v>103</v>
       </c>
       <c r="AG433" s="8"/>
@@ -14752,21 +14678,21 @@
       <c r="AH437" s="14"/>
     </row>
     <row r="438" ht="14.25" customHeight="true">
-      <c r="AE438" t="s" s="30">
+      <c r="AE438" t="s" s="31">
         <v>158</v>
       </c>
-      <c r="AF438" s="30"/>
+      <c r="AF438" s="31"/>
       <c r="AH438" s="18"/>
     </row>
     <row r="439" ht="12.0" customHeight="true">
-      <c r="AE439" s="30"/>
-      <c r="AF439" s="30"/>
+      <c r="AE439" s="31"/>
+      <c r="AF439" s="31"/>
       <c r="AH439" s="18"/>
     </row>
     <row r="440" ht="12.0" customHeight="true">
       <c r="AC440" s="15"/>
-      <c r="AE440" s="30"/>
-      <c r="AF440" s="30"/>
+      <c r="AE440" s="31"/>
+      <c r="AF440" s="31"/>
       <c r="AH440" s="18"/>
     </row>
     <row r="441" ht="12.0" customHeight="true">
@@ -14781,11 +14707,11 @@
       <c r="AE442" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF442" t="s" s="31">
+      <c r="AF442" t="s" s="32">
         <v>159</v>
       </c>
-      <c r="AG442" s="31"/>
-      <c r="AH442" s="32"/>
+      <c r="AG442" s="32"/>
+      <c r="AH442" s="33"/>
     </row>
     <row r="443" ht="12.0" customHeight="true">
       <c r="AC443" s="15"/>
@@ -14812,7 +14738,7 @@
       <c r="AE445" t="s" s="493">
         <v>15</v>
       </c>
-      <c r="AF445" t="s" s="33">
+      <c r="AF445" t="s" s="30">
         <v>57</v>
       </c>
       <c r="AG445" s="8"/>
@@ -14835,21 +14761,21 @@
       <c r="AH449" s="14"/>
     </row>
     <row r="450" ht="14.25" customHeight="true">
-      <c r="AE450" t="s" s="30">
+      <c r="AE450" t="s" s="31">
         <v>160</v>
       </c>
-      <c r="AF450" s="30"/>
+      <c r="AF450" s="31"/>
       <c r="AH450" s="18"/>
     </row>
     <row r="451" ht="12.0" customHeight="true">
-      <c r="AE451" s="30"/>
-      <c r="AF451" s="30"/>
+      <c r="AE451" s="31"/>
+      <c r="AF451" s="31"/>
       <c r="AH451" s="18"/>
     </row>
     <row r="452" ht="12.0" customHeight="true">
       <c r="AC452" s="15"/>
-      <c r="AE452" s="30"/>
-      <c r="AF452" s="30"/>
+      <c r="AE452" s="31"/>
+      <c r="AF452" s="31"/>
       <c r="AH452" s="18"/>
     </row>
     <row r="453" ht="12.0" customHeight="true">
@@ -14864,11 +14790,11 @@
       <c r="AE454" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF454" t="s" s="31">
+      <c r="AF454" t="s" s="32">
         <v>161</v>
       </c>
-      <c r="AG454" s="31"/>
-      <c r="AH454" s="32"/>
+      <c r="AG454" s="32"/>
+      <c r="AH454" s="33"/>
     </row>
     <row r="455" ht="12.0" customHeight="true">
       <c r="AC455" s="15"/>
@@ -14895,7 +14821,7 @@
       <c r="AE457" t="s" s="499">
         <v>15</v>
       </c>
-      <c r="AF457" t="s" s="33">
+      <c r="AF457" t="s" s="30">
         <v>59</v>
       </c>
       <c r="AG457" s="8"/>
@@ -14918,21 +14844,21 @@
       <c r="AH461" s="14"/>
     </row>
     <row r="462" ht="14.25" customHeight="true">
-      <c r="AE462" t="s" s="30">
+      <c r="AE462" t="s" s="31">
         <v>162</v>
       </c>
-      <c r="AF462" s="30"/>
+      <c r="AF462" s="31"/>
       <c r="AH462" s="18"/>
     </row>
     <row r="463" ht="12.0" customHeight="true">
-      <c r="AE463" s="30"/>
-      <c r="AF463" s="30"/>
+      <c r="AE463" s="31"/>
+      <c r="AF463" s="31"/>
       <c r="AH463" s="18"/>
     </row>
     <row r="464" ht="12.0" customHeight="true">
       <c r="AC464" s="15"/>
-      <c r="AE464" s="30"/>
-      <c r="AF464" s="30"/>
+      <c r="AE464" s="31"/>
+      <c r="AF464" s="31"/>
       <c r="AH464" s="18"/>
     </row>
     <row r="465" ht="12.0" customHeight="true">
@@ -14947,11 +14873,11 @@
       <c r="AE466" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF466" t="s" s="31">
+      <c r="AF466" t="s" s="32">
         <v>80</v>
       </c>
-      <c r="AG466" s="31"/>
-      <c r="AH466" s="32"/>
+      <c r="AG466" s="32"/>
+      <c r="AH466" s="33"/>
     </row>
     <row r="467" ht="12.0" customHeight="true">
       <c r="AC467" s="15"/>
@@ -14978,7 +14904,7 @@
       <c r="AE469" t="s" s="505">
         <v>15</v>
       </c>
-      <c r="AF469" t="s" s="33">
+      <c r="AF469" t="s" s="30">
         <v>163</v>
       </c>
       <c r="AG469" s="8"/>
@@ -15001,21 +14927,21 @@
       <c r="AH473" s="14"/>
     </row>
     <row r="474" ht="14.25" customHeight="true">
-      <c r="AE474" t="s" s="30">
+      <c r="AE474" t="s" s="31">
         <v>164</v>
       </c>
-      <c r="AF474" s="30"/>
+      <c r="AF474" s="31"/>
       <c r="AH474" s="18"/>
     </row>
     <row r="475" ht="12.0" customHeight="true">
-      <c r="AE475" s="30"/>
-      <c r="AF475" s="30"/>
+      <c r="AE475" s="31"/>
+      <c r="AF475" s="31"/>
       <c r="AH475" s="18"/>
     </row>
     <row r="476" ht="12.0" customHeight="true">
       <c r="AC476" s="15"/>
-      <c r="AE476" s="30"/>
-      <c r="AF476" s="30"/>
+      <c r="AE476" s="31"/>
+      <c r="AF476" s="31"/>
       <c r="AH476" s="18"/>
     </row>
     <row r="477" ht="12.0" customHeight="true">
@@ -15030,11 +14956,11 @@
       <c r="AE478" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF478" t="s" s="31">
+      <c r="AF478" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG478" s="31"/>
-      <c r="AH478" s="32"/>
+      <c r="AG478" s="32"/>
+      <c r="AH478" s="33"/>
     </row>
     <row r="479" ht="12.0" customHeight="true">
       <c r="AC479" s="15"/>
@@ -15061,7 +14987,7 @@
       <c r="AE481" t="s" s="511">
         <v>15</v>
       </c>
-      <c r="AF481" t="s" s="33">
+      <c r="AF481" t="s" s="30">
         <v>165</v>
       </c>
       <c r="AG481" s="8"/>
@@ -15084,21 +15010,21 @@
       <c r="AH485" s="14"/>
     </row>
     <row r="486" ht="14.25" customHeight="true">
-      <c r="AE486" t="s" s="30">
+      <c r="AE486" t="s" s="31">
         <v>166</v>
       </c>
-      <c r="AF486" s="30"/>
+      <c r="AF486" s="31"/>
       <c r="AH486" s="18"/>
     </row>
     <row r="487" ht="12.0" customHeight="true">
-      <c r="AE487" s="30"/>
-      <c r="AF487" s="30"/>
+      <c r="AE487" s="31"/>
+      <c r="AF487" s="31"/>
       <c r="AH487" s="18"/>
     </row>
     <row r="488" ht="12.0" customHeight="true">
       <c r="AC488" s="15"/>
-      <c r="AE488" s="30"/>
-      <c r="AF488" s="30"/>
+      <c r="AE488" s="31"/>
+      <c r="AF488" s="31"/>
       <c r="AH488" s="18"/>
     </row>
     <row r="489" ht="12.0" customHeight="true">
@@ -15113,11 +15039,11 @@
       <c r="AE490" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF490" t="s" s="31">
+      <c r="AF490" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG490" s="31"/>
-      <c r="AH490" s="32"/>
+      <c r="AG490" s="32"/>
+      <c r="AH490" s="33"/>
     </row>
     <row r="491" ht="12.0" customHeight="true">
       <c r="AC491" s="15"/>
@@ -15144,7 +15070,7 @@
       <c r="AE493" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="AF493" t="s" s="33">
+      <c r="AF493" t="s" s="30">
         <v>66</v>
       </c>
       <c r="AG493" s="8"/>
@@ -15167,21 +15093,21 @@
       <c r="AH497" s="14"/>
     </row>
     <row r="498" ht="14.25" customHeight="true">
-      <c r="AE498" t="s" s="30">
+      <c r="AE498" t="s" s="31">
         <v>167</v>
       </c>
-      <c r="AF498" s="30"/>
+      <c r="AF498" s="31"/>
       <c r="AH498" s="18"/>
     </row>
     <row r="499" ht="12.0" customHeight="true">
-      <c r="AE499" s="30"/>
-      <c r="AF499" s="30"/>
+      <c r="AE499" s="31"/>
+      <c r="AF499" s="31"/>
       <c r="AH499" s="18"/>
     </row>
     <row r="500" ht="12.0" customHeight="true">
       <c r="AC500" s="15"/>
-      <c r="AE500" s="30"/>
-      <c r="AF500" s="30"/>
+      <c r="AE500" s="31"/>
+      <c r="AF500" s="31"/>
       <c r="AH500" s="18"/>
     </row>
     <row r="501" ht="12.0" customHeight="true">
@@ -15196,11 +15122,11 @@
       <c r="AE502" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF502" t="s" s="31">
+      <c r="AF502" t="s" s="32">
         <v>91</v>
       </c>
-      <c r="AG502" s="31"/>
-      <c r="AH502" s="32"/>
+      <c r="AG502" s="32"/>
+      <c r="AH502" s="33"/>
     </row>
     <row r="503" ht="12.0" customHeight="true">
       <c r="AC503" s="15"/>
@@ -15227,7 +15153,7 @@
       <c r="AE505" t="s" s="523">
         <v>15</v>
       </c>
-      <c r="AF505" t="s" s="33">
+      <c r="AF505" t="s" s="30">
         <v>168</v>
       </c>
       <c r="AG505" s="8"/>
@@ -15250,21 +15176,21 @@
       <c r="AH509" s="14"/>
     </row>
     <row r="510" ht="14.25" customHeight="true">
-      <c r="AE510" t="s" s="30">
+      <c r="AE510" t="s" s="31">
         <v>169</v>
       </c>
-      <c r="AF510" s="30"/>
+      <c r="AF510" s="31"/>
       <c r="AH510" s="18"/>
     </row>
     <row r="511" ht="12.0" customHeight="true">
-      <c r="AE511" s="30"/>
-      <c r="AF511" s="30"/>
+      <c r="AE511" s="31"/>
+      <c r="AF511" s="31"/>
       <c r="AH511" s="18"/>
     </row>
     <row r="512" ht="12.0" customHeight="true">
       <c r="AC512" s="15"/>
-      <c r="AE512" s="30"/>
-      <c r="AF512" s="30"/>
+      <c r="AE512" s="31"/>
+      <c r="AF512" s="31"/>
       <c r="AH512" s="18"/>
     </row>
     <row r="513" ht="12.0" customHeight="true">
@@ -15279,11 +15205,11 @@
       <c r="AE514" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF514" t="s" s="31">
+      <c r="AF514" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG514" s="31"/>
-      <c r="AH514" s="32"/>
+      <c r="AG514" s="32"/>
+      <c r="AH514" s="33"/>
     </row>
     <row r="515" ht="12.0" customHeight="true">
       <c r="AC515" s="15"/>
@@ -15310,7 +15236,7 @@
       <c r="AE517" t="s" s="529">
         <v>15</v>
       </c>
-      <c r="AF517" t="s" s="33">
+      <c r="AF517" t="s" s="30">
         <v>170</v>
       </c>
       <c r="AG517" s="8"/>
@@ -15333,21 +15259,21 @@
       <c r="AH521" s="14"/>
     </row>
     <row r="522" ht="14.25" customHeight="true">
-      <c r="AE522" t="s" s="30">
+      <c r="AE522" t="s" s="31">
         <v>171</v>
       </c>
-      <c r="AF522" s="30"/>
+      <c r="AF522" s="31"/>
       <c r="AH522" s="18"/>
     </row>
     <row r="523" ht="12.0" customHeight="true">
-      <c r="AE523" s="30"/>
-      <c r="AF523" s="30"/>
+      <c r="AE523" s="31"/>
+      <c r="AF523" s="31"/>
       <c r="AH523" s="18"/>
     </row>
     <row r="524" ht="12.0" customHeight="true">
       <c r="AC524" s="15"/>
-      <c r="AE524" s="30"/>
-      <c r="AF524" s="30"/>
+      <c r="AE524" s="31"/>
+      <c r="AF524" s="31"/>
       <c r="AH524" s="18"/>
     </row>
     <row r="525" ht="12.0" customHeight="true">
@@ -15362,11 +15288,11 @@
       <c r="AE526" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF526" t="s" s="31">
+      <c r="AF526" t="s" s="32">
         <v>35</v>
       </c>
-      <c r="AG526" s="31"/>
-      <c r="AH526" s="32"/>
+      <c r="AG526" s="32"/>
+      <c r="AH526" s="33"/>
     </row>
     <row r="527" ht="12.0" customHeight="true">
       <c r="AC527" s="15"/>
@@ -15393,7 +15319,7 @@
       <c r="AE529" t="s" s="535">
         <v>18</v>
       </c>
-      <c r="AF529" t="s" s="33">
+      <c r="AF529" t="s" s="30">
         <v>172</v>
       </c>
       <c r="AG529" s="8"/>
@@ -15416,21 +15342,21 @@
       <c r="AH533" s="14"/>
     </row>
     <row r="534" ht="14.25" customHeight="true">
-      <c r="AE534" t="s" s="30">
+      <c r="AE534" t="s" s="31">
         <v>173</v>
       </c>
-      <c r="AF534" s="30"/>
+      <c r="AF534" s="31"/>
       <c r="AH534" s="18"/>
     </row>
     <row r="535" ht="12.0" customHeight="true">
-      <c r="AE535" s="30"/>
-      <c r="AF535" s="30"/>
+      <c r="AE535" s="31"/>
+      <c r="AF535" s="31"/>
       <c r="AH535" s="18"/>
     </row>
     <row r="536" ht="12.0" customHeight="true">
       <c r="AC536" s="15"/>
-      <c r="AE536" s="30"/>
-      <c r="AF536" s="30"/>
+      <c r="AE536" s="31"/>
+      <c r="AF536" s="31"/>
       <c r="AH536" s="18"/>
     </row>
     <row r="537" ht="12.0" customHeight="true">
@@ -15445,11 +15371,11 @@
       <c r="AE538" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF538" t="s" s="31">
+      <c r="AF538" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG538" s="31"/>
-      <c r="AH538" s="32"/>
+      <c r="AG538" s="32"/>
+      <c r="AH538" s="33"/>
     </row>
     <row r="539" ht="12.0" customHeight="true">
       <c r="AC539" s="15"/>
@@ -15476,7 +15402,7 @@
       <c r="AE541" t="s" s="541">
         <v>18</v>
       </c>
-      <c r="AF541" t="s" s="33">
+      <c r="AF541" t="s" s="30">
         <v>125</v>
       </c>
       <c r="AG541" s="8"/>
@@ -15499,21 +15425,21 @@
       <c r="AH545" s="14"/>
     </row>
     <row r="546" ht="14.25" customHeight="true">
-      <c r="AE546" t="s" s="30">
+      <c r="AE546" t="s" s="31">
         <v>174</v>
       </c>
-      <c r="AF546" s="30"/>
+      <c r="AF546" s="31"/>
       <c r="AH546" s="18"/>
     </row>
     <row r="547" ht="12.0" customHeight="true">
-      <c r="AE547" s="30"/>
-      <c r="AF547" s="30"/>
+      <c r="AE547" s="31"/>
+      <c r="AF547" s="31"/>
       <c r="AH547" s="18"/>
     </row>
     <row r="548" ht="12.0" customHeight="true">
       <c r="AC548" s="15"/>
-      <c r="AE548" s="30"/>
-      <c r="AF548" s="30"/>
+      <c r="AE548" s="31"/>
+      <c r="AF548" s="31"/>
       <c r="AH548" s="18"/>
     </row>
     <row r="549" ht="12.0" customHeight="true">
@@ -15528,11 +15454,11 @@
       <c r="AE550" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF550" t="s" s="31">
+      <c r="AF550" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG550" s="31"/>
-      <c r="AH550" s="32"/>
+      <c r="AG550" s="32"/>
+      <c r="AH550" s="33"/>
     </row>
     <row r="551" ht="12.0" customHeight="true">
       <c r="AC551" s="15"/>
@@ -15559,7 +15485,7 @@
       <c r="AE553" t="s" s="547">
         <v>18</v>
       </c>
-      <c r="AF553" t="s" s="33">
+      <c r="AF553" t="s" s="30">
         <v>125</v>
       </c>
       <c r="AG553" s="8"/>
@@ -15582,21 +15508,21 @@
       <c r="AH557" s="14"/>
     </row>
     <row r="558" ht="14.25" customHeight="true">
-      <c r="AE558" t="s" s="30">
+      <c r="AE558" t="s" s="31">
         <v>175</v>
       </c>
-      <c r="AF558" s="30"/>
+      <c r="AF558" s="31"/>
       <c r="AH558" s="18"/>
     </row>
     <row r="559" ht="12.0" customHeight="true">
-      <c r="AE559" s="30"/>
-      <c r="AF559" s="30"/>
+      <c r="AE559" s="31"/>
+      <c r="AF559" s="31"/>
       <c r="AH559" s="18"/>
     </row>
     <row r="560" ht="12.0" customHeight="true">
       <c r="AC560" s="15"/>
-      <c r="AE560" s="30"/>
-      <c r="AF560" s="30"/>
+      <c r="AE560" s="31"/>
+      <c r="AF560" s="31"/>
       <c r="AH560" s="18"/>
     </row>
     <row r="561" ht="12.0" customHeight="true">
@@ -15611,11 +15537,11 @@
       <c r="AE562" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF562" t="s" s="31">
+      <c r="AF562" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG562" s="31"/>
-      <c r="AH562" s="32"/>
+      <c r="AG562" s="32"/>
+      <c r="AH562" s="33"/>
     </row>
     <row r="563" ht="12.0" customHeight="true">
       <c r="AC563" s="15"/>
@@ -15642,7 +15568,7 @@
       <c r="AE565" t="s" s="553">
         <v>18</v>
       </c>
-      <c r="AF565" t="s" s="33">
+      <c r="AF565" t="s" s="30">
         <v>176</v>
       </c>
       <c r="AG565" s="8"/>
@@ -15665,21 +15591,21 @@
       <c r="AH569" s="14"/>
     </row>
     <row r="570" ht="14.25" customHeight="true">
-      <c r="AE570" t="s" s="30">
+      <c r="AE570" t="s" s="31">
         <v>177</v>
       </c>
-      <c r="AF570" s="30"/>
+      <c r="AF570" s="31"/>
       <c r="AH570" s="18"/>
     </row>
     <row r="571" ht="12.0" customHeight="true">
-      <c r="AE571" s="30"/>
-      <c r="AF571" s="30"/>
+      <c r="AE571" s="31"/>
+      <c r="AF571" s="31"/>
       <c r="AH571" s="18"/>
     </row>
     <row r="572" ht="12.0" customHeight="true">
       <c r="AC572" s="15"/>
-      <c r="AE572" s="30"/>
-      <c r="AF572" s="30"/>
+      <c r="AE572" s="31"/>
+      <c r="AF572" s="31"/>
       <c r="AH572" s="18"/>
     </row>
     <row r="573" ht="12.0" customHeight="true">
@@ -15694,11 +15620,11 @@
       <c r="AE574" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF574" t="s" s="31">
+      <c r="AF574" t="s" s="32">
         <v>35</v>
       </c>
-      <c r="AG574" s="31"/>
-      <c r="AH574" s="32"/>
+      <c r="AG574" s="32"/>
+      <c r="AH574" s="33"/>
     </row>
     <row r="575" ht="12.0" customHeight="true">
       <c r="AC575" s="15"/>
@@ -15725,7 +15651,7 @@
       <c r="AE577" t="s" s="559">
         <v>18</v>
       </c>
-      <c r="AF577" t="s" s="33">
+      <c r="AF577" t="s" s="30">
         <v>178</v>
       </c>
       <c r="AG577" s="8"/>
@@ -15748,21 +15674,21 @@
       <c r="AH581" s="14"/>
     </row>
     <row r="582" ht="14.25" customHeight="true">
-      <c r="AE582" t="s" s="30">
+      <c r="AE582" t="s" s="31">
         <v>179</v>
       </c>
-      <c r="AF582" s="30"/>
+      <c r="AF582" s="31"/>
       <c r="AH582" s="18"/>
     </row>
     <row r="583" ht="12.0" customHeight="true">
-      <c r="AE583" s="30"/>
-      <c r="AF583" s="30"/>
+      <c r="AE583" s="31"/>
+      <c r="AF583" s="31"/>
       <c r="AH583" s="18"/>
     </row>
     <row r="584" ht="12.0" customHeight="true">
       <c r="AC584" s="15"/>
-      <c r="AE584" s="30"/>
-      <c r="AF584" s="30"/>
+      <c r="AE584" s="31"/>
+      <c r="AF584" s="31"/>
       <c r="AH584" s="18"/>
     </row>
     <row r="585" ht="12.0" customHeight="true">
@@ -15777,11 +15703,11 @@
       <c r="AE586" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF586" t="s" s="31">
+      <c r="AF586" t="s" s="32">
         <v>35</v>
       </c>
-      <c r="AG586" s="31"/>
-      <c r="AH586" s="32"/>
+      <c r="AG586" s="32"/>
+      <c r="AH586" s="33"/>
     </row>
     <row r="587" ht="12.0" customHeight="true">
       <c r="AC587" s="15"/>
@@ -15808,7 +15734,7 @@
       <c r="AE589" t="s" s="565">
         <v>18</v>
       </c>
-      <c r="AF589" t="s" s="33">
+      <c r="AF589" t="s" s="30">
         <v>180</v>
       </c>
       <c r="AG589" s="8"/>
@@ -15831,21 +15757,21 @@
       <c r="AH593" s="14"/>
     </row>
     <row r="594" ht="14.25" customHeight="true">
-      <c r="AE594" t="s" s="30">
+      <c r="AE594" t="s" s="31">
         <v>181</v>
       </c>
-      <c r="AF594" s="30"/>
+      <c r="AF594" s="31"/>
       <c r="AH594" s="18"/>
     </row>
     <row r="595" ht="12.0" customHeight="true">
-      <c r="AE595" s="30"/>
-      <c r="AF595" s="30"/>
+      <c r="AE595" s="31"/>
+      <c r="AF595" s="31"/>
       <c r="AH595" s="18"/>
     </row>
     <row r="596" ht="12.0" customHeight="true">
       <c r="AC596" s="15"/>
-      <c r="AE596" s="30"/>
-      <c r="AF596" s="30"/>
+      <c r="AE596" s="31"/>
+      <c r="AF596" s="31"/>
       <c r="AH596" s="18"/>
     </row>
     <row r="597" ht="12.0" customHeight="true">
@@ -15860,11 +15786,11 @@
       <c r="AE598" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF598" t="s" s="31">
+      <c r="AF598" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG598" s="31"/>
-      <c r="AH598" s="32"/>
+      <c r="AG598" s="32"/>
+      <c r="AH598" s="33"/>
     </row>
     <row r="599" ht="12.0" customHeight="true">
       <c r="AC599" s="15"/>
@@ -15891,7 +15817,7 @@
       <c r="AE601" t="s" s="571">
         <v>18</v>
       </c>
-      <c r="AF601" t="s" s="33">
+      <c r="AF601" t="s" s="30">
         <v>182</v>
       </c>
       <c r="AG601" s="8"/>
@@ -15914,21 +15840,21 @@
       <c r="AH605" s="14"/>
     </row>
     <row r="606" ht="14.25" customHeight="true">
-      <c r="AE606" t="s" s="30">
+      <c r="AE606" t="s" s="31">
         <v>183</v>
       </c>
-      <c r="AF606" s="30"/>
+      <c r="AF606" s="31"/>
       <c r="AH606" s="18"/>
     </row>
     <row r="607" ht="12.0" customHeight="true">
-      <c r="AE607" s="30"/>
-      <c r="AF607" s="30"/>
+      <c r="AE607" s="31"/>
+      <c r="AF607" s="31"/>
       <c r="AH607" s="18"/>
     </row>
     <row r="608" ht="12.0" customHeight="true">
       <c r="AC608" s="15"/>
-      <c r="AE608" s="30"/>
-      <c r="AF608" s="30"/>
+      <c r="AE608" s="31"/>
+      <c r="AF608" s="31"/>
       <c r="AH608" s="18"/>
     </row>
     <row r="609" ht="12.0" customHeight="true">
@@ -15943,11 +15869,11 @@
       <c r="AE610" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF610" t="s" s="31">
+      <c r="AF610" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG610" s="31"/>
-      <c r="AH610" s="32"/>
+      <c r="AG610" s="32"/>
+      <c r="AH610" s="33"/>
     </row>
     <row r="611" ht="12.0" customHeight="true">
       <c r="AC611" s="15"/>
@@ -15974,7 +15900,7 @@
       <c r="AE613" t="s" s="577">
         <v>18</v>
       </c>
-      <c r="AF613" t="s" s="33">
+      <c r="AF613" t="s" s="30">
         <v>21</v>
       </c>
       <c r="AG613" s="8"/>
@@ -15997,21 +15923,21 @@
       <c r="AH617" s="14"/>
     </row>
     <row r="618" ht="14.25" customHeight="true">
-      <c r="AE618" t="s" s="30">
+      <c r="AE618" t="s" s="31">
         <v>184</v>
       </c>
-      <c r="AF618" s="30"/>
+      <c r="AF618" s="31"/>
       <c r="AH618" s="18"/>
     </row>
     <row r="619" ht="12.0" customHeight="true">
-      <c r="AE619" s="30"/>
-      <c r="AF619" s="30"/>
+      <c r="AE619" s="31"/>
+      <c r="AF619" s="31"/>
       <c r="AH619" s="18"/>
     </row>
     <row r="620" ht="12.0" customHeight="true">
       <c r="AC620" s="15"/>
-      <c r="AE620" s="30"/>
-      <c r="AF620" s="30"/>
+      <c r="AE620" s="31"/>
+      <c r="AF620" s="31"/>
       <c r="AH620" s="18"/>
     </row>
     <row r="621" ht="12.0" customHeight="true">
@@ -16026,11 +15952,11 @@
       <c r="AE622" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF622" t="s" s="31">
+      <c r="AF622" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG622" s="31"/>
-      <c r="AH622" s="32"/>
+      <c r="AG622" s="32"/>
+      <c r="AH622" s="33"/>
     </row>
     <row r="623" ht="12.0" customHeight="true">
       <c r="AC623" s="15"/>
@@ -16057,7 +15983,7 @@
       <c r="AE625" t="s" s="583">
         <v>18</v>
       </c>
-      <c r="AF625" t="s" s="33">
+      <c r="AF625" t="s" s="30">
         <v>185</v>
       </c>
       <c r="AG625" s="8"/>
@@ -16080,21 +16006,21 @@
       <c r="AH629" s="14"/>
     </row>
     <row r="630" ht="14.25" customHeight="true">
-      <c r="AE630" t="s" s="30">
+      <c r="AE630" t="s" s="31">
         <v>186</v>
       </c>
-      <c r="AF630" s="30"/>
+      <c r="AF630" s="31"/>
       <c r="AH630" s="18"/>
     </row>
     <row r="631" ht="12.0" customHeight="true">
-      <c r="AE631" s="30"/>
-      <c r="AF631" s="30"/>
+      <c r="AE631" s="31"/>
+      <c r="AF631" s="31"/>
       <c r="AH631" s="18"/>
     </row>
     <row r="632" ht="12.0" customHeight="true">
       <c r="AC632" s="15"/>
-      <c r="AE632" s="30"/>
-      <c r="AF632" s="30"/>
+      <c r="AE632" s="31"/>
+      <c r="AF632" s="31"/>
       <c r="AH632" s="18"/>
     </row>
     <row r="633" ht="12.0" customHeight="true">
@@ -16109,11 +16035,11 @@
       <c r="AE634" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF634" t="s" s="31">
+      <c r="AF634" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG634" s="31"/>
-      <c r="AH634" s="32"/>
+      <c r="AG634" s="32"/>
+      <c r="AH634" s="33"/>
     </row>
     <row r="635" ht="12.0" customHeight="true">
       <c r="AC635" s="15"/>
@@ -16140,7 +16066,7 @@
       <c r="AE637" t="s" s="589">
         <v>18</v>
       </c>
-      <c r="AF637" t="s" s="33">
+      <c r="AF637" t="s" s="30">
         <v>187</v>
       </c>
       <c r="AG637" s="8"/>
@@ -16163,21 +16089,21 @@
       <c r="AH641" s="14"/>
     </row>
     <row r="642" ht="14.25" customHeight="true">
-      <c r="AE642" t="s" s="30">
+      <c r="AE642" t="s" s="31">
         <v>188</v>
       </c>
-      <c r="AF642" s="30"/>
+      <c r="AF642" s="31"/>
       <c r="AH642" s="18"/>
     </row>
     <row r="643" ht="12.0" customHeight="true">
-      <c r="AE643" s="30"/>
-      <c r="AF643" s="30"/>
+      <c r="AE643" s="31"/>
+      <c r="AF643" s="31"/>
       <c r="AH643" s="18"/>
     </row>
     <row r="644" ht="12.0" customHeight="true">
       <c r="AC644" s="15"/>
-      <c r="AE644" s="30"/>
-      <c r="AF644" s="30"/>
+      <c r="AE644" s="31"/>
+      <c r="AF644" s="31"/>
       <c r="AH644" s="18"/>
     </row>
     <row r="645" ht="12.0" customHeight="true">
@@ -16192,11 +16118,11 @@
       <c r="AE646" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF646" t="s" s="31">
+      <c r="AF646" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="AG646" s="31"/>
-      <c r="AH646" s="32"/>
+      <c r="AG646" s="32"/>
+      <c r="AH646" s="33"/>
     </row>
     <row r="647" ht="12.0" customHeight="true">
       <c r="AC647" s="15"/>
@@ -16223,7 +16149,7 @@
       <c r="AE649" t="s" s="595">
         <v>18</v>
       </c>
-      <c r="AF649" t="s" s="33">
+      <c r="AF649" t="s" s="30">
         <v>189</v>
       </c>
       <c r="AG649" s="8"/>
@@ -16246,21 +16172,21 @@
       <c r="AH653" s="14"/>
     </row>
     <row r="654" ht="14.25" customHeight="true">
-      <c r="AE654" t="s" s="30">
+      <c r="AE654" t="s" s="31">
         <v>190</v>
       </c>
-      <c r="AF654" s="30"/>
+      <c r="AF654" s="31"/>
       <c r="AH654" s="18"/>
     </row>
     <row r="655" ht="12.0" customHeight="true">
-      <c r="AE655" s="30"/>
-      <c r="AF655" s="30"/>
+      <c r="AE655" s="31"/>
+      <c r="AF655" s="31"/>
       <c r="AH655" s="18"/>
     </row>
     <row r="656" ht="12.0" customHeight="true">
       <c r="AC656" s="15"/>
-      <c r="AE656" s="30"/>
-      <c r="AF656" s="30"/>
+      <c r="AE656" s="31"/>
+      <c r="AF656" s="31"/>
       <c r="AH656" s="18"/>
     </row>
     <row r="657" ht="12.0" customHeight="true">
@@ -16275,11 +16201,11 @@
       <c r="AE658" t="n" s="20">
         <v>100.0</v>
       </c>
-      <c r="AF658" t="s" s="31">
+      <c r="AF658" t="s" s="32">
         <v>35</v>
       </c>
-      <c r="AG658" s="31"/>
-      <c r="AH658" s="32"/>
+      <c r="AG658" s="32"/>
+      <c r="AH658" s="33"/>
     </row>
     <row r="659" ht="12.0" customHeight="true">
       <c r="AC659" s="15"/>
@@ -16306,7 +16232,7 @@
       <c r="AE661" t="s" s="601">
         <v>18</v>
       </c>
-      <c r="AF661" t="s" s="33">
+      <c r="AF661" t="s" s="30">
         <v>191</v>
       </c>
       <c r="AG661" s="8"/>
@@ -16496,7 +16422,7 @@
     <mergeCell ref="AF658:AH658"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576 T13 J1:J1048576 Q1:Q1048576 X1:X1048576 AE1:AE1048576">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16509,9 +16435,9 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R13">
+  <conditionalFormatting sqref="AF13">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>"R13 &lt; TODAY()"</formula>
+      <formula>$AF13&lt; 18/7/2019</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
